--- a/Eccentric_Thesis.xlsx
+++ b/Eccentric_Thesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5a72b3be143b9d/Documents/R/manny_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{07977853-2EE2-48E2-8F5D-017E79233B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0ABE13C-2A40-4A83-A360-F77B48A748C9}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{1BF1A4C4-A8EA-42B0-86D1-EDAA0F949A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425703E9-8A9D-4EF4-BCDE-F268B65A14AE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3585" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0ABA7DC7-0BF8-4892-8FE9-20E1210F99FA}"/>
+    <workbookView xWindow="7335" yWindow="1920" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{0ABA7DC7-0BF8-4892-8FE9-20E1210F99FA}"/>
   </bookViews>
   <sheets>
     <sheet name="ESS_BFP" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="81">
   <si>
     <t>Condition</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Re_Antegrade</t>
   </si>
   <si>
-    <t>Descriptives</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -233,38 +230,65 @@
     <t>ECCBF41</t>
   </si>
   <si>
-    <t>ECCBF24</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ECCBF25</t>
+    <t>vars</t>
   </si>
   <si>
-    <t>ECCBF26</t>
+    <t>77.6 1</t>
   </si>
   <si>
-    <t>ECCBF28</t>
+    <t>170.2 1</t>
   </si>
   <si>
-    <t>ECCBF30</t>
+    <t>Females</t>
   </si>
   <si>
-    <t>ECCBF31</t>
+    <t>Males</t>
   </si>
   <si>
-    <t>ECCBF32</t>
+    <t>t or w</t>
   </si>
   <si>
-    <t>ECCBF33</t>
+    <t>p</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>magnitude</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>Upper Basal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderate </t>
+  </si>
+  <si>
+    <t>effect size  (Wilcoxon effect or Hedges g)</t>
+  </si>
+  <si>
+    <t>Upper Ischemia</t>
+  </si>
+  <si>
+    <t>Upper Post ischemia</t>
+  </si>
+  <si>
+    <t>Lower Basal</t>
+  </si>
+  <si>
+    <t>Lower Ischemia</t>
+  </si>
+  <si>
+    <t>Lower Post ischemia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +319,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -344,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -371,6 +401,15 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -688,9 +727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03449FF-6700-4FFB-AF3E-80517BB2E142}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +1004,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>45</v>
@@ -1065,7 +1104,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>45</v>
@@ -1115,7 +1154,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>45</v>
@@ -1265,7 +1304,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
@@ -1315,7 +1354,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>17</v>
@@ -1365,7 +1404,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>17</v>
@@ -1415,7 +1454,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>17</v>
@@ -1465,7 +1504,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>17</v>
@@ -1515,7 +1554,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>17</v>
@@ -1565,7 +1604,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>17</v>
@@ -1615,7 +1654,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>17</v>
@@ -1965,7 +2004,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>37</v>
@@ -2015,7 +2054,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>37</v>
@@ -2165,7 +2204,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>37</v>
@@ -2215,7 +2254,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>37</v>
@@ -2265,7 +2304,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>37</v>
@@ -2315,7 +2354,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>37</v>
@@ -2365,7 +2404,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>37</v>
@@ -2415,7 +2454,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>37</v>
@@ -2465,7 +2504,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>37</v>
@@ -2515,7 +2554,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>37</v>
@@ -2865,7 +2904,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>38</v>
@@ -2915,7 +2954,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>38</v>
@@ -3065,7 +3104,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>38</v>
@@ -3115,7 +3154,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>38</v>
@@ -3165,7 +3204,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>38</v>
@@ -3215,7 +3254,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>38</v>
@@ -3265,7 +3304,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>38</v>
@@ -3315,7 +3354,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>38</v>
@@ -3365,7 +3404,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>38</v>
@@ -3415,7 +3454,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>38</v>
@@ -3765,7 +3804,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>39</v>
@@ -3815,7 +3854,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>39</v>
@@ -3965,7 +4004,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>39</v>
@@ -4015,7 +4054,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>39</v>
@@ -4065,7 +4104,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>39</v>
@@ -4100,7 +4139,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>39</v>
@@ -4150,7 +4189,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>39</v>
@@ -4200,7 +4239,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>39</v>
@@ -4250,7 +4289,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>39</v>
@@ -4300,7 +4339,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>39</v>
@@ -4801,7 +4840,7 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -4870,7 +4909,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -4906,7 +4945,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -4993,7 +5032,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -5030,7 +5069,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -5053,7 +5092,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -5076,7 +5115,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -5099,7 +5138,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -5119,7 +5158,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -5130,7 +5169,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -5153,7 +5192,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -5322,7 +5361,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -5390,7 +5429,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -5426,7 +5465,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -5504,7 +5543,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -5536,7 +5575,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -5568,7 +5607,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -5591,7 +5630,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -5605,7 +5644,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -5628,7 +5667,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -5642,7 +5681,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -5668,7 +5707,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -5757,18 +5796,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33926FC1-D335-4EDA-9A14-118A243C8658}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="10" width="9.140625" style="3"/>
+    <col min="14" max="16" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5778,31 +5817,31 @@
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -5811,30 +5850,37 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3">
-        <v>156</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2">
+        <v>1.56</v>
+      </c>
+      <c r="E2">
         <v>105.2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>21</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>24.5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>182</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>5.8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -5843,30 +5889,43 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3">
-        <v>148</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3">
+        <v>1.48</v>
+      </c>
+      <c r="E3">
         <v>82.7</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>23</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>25.5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>191</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -5875,30 +5934,43 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3">
-        <v>177.5</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="E4">
         <v>87.7</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>26</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>34.1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>175</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>3.8</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="17">
+        <v>22.1</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2.91</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -5907,31 +5979,44 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3">
-        <v>161</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>1.61</v>
+      </c>
+      <c r="E5">
         <v>53.8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>43.5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>188</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>53</v>
+      <c r="L5" s="14"/>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -5939,9 +6024,43 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6">
+        <v>1.75</v>
+      </c>
+      <c r="E6">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>32.1</v>
+      </c>
+      <c r="H6">
+        <v>163</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="17">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="O6" s="17">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="P6" s="17">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
@@ -5950,31 +6069,44 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3">
-        <v>162</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>1.62</v>
+      </c>
+      <c r="E7">
         <v>62</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>35.6</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>164</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>6.7</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
+      <c r="L7" s="14"/>
+      <c r="M7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="17">
+        <v>32.4</v>
+      </c>
+      <c r="O7" s="17">
+        <v>5.52</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -5982,10 +6114,44 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>55</v>
+      <c r="D8">
+        <v>1.59</v>
+      </c>
+      <c r="E8">
+        <v>55.8</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>184</v>
+      </c>
+      <c r="I8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="17">
+        <v>176</v>
+      </c>
+      <c r="O8" s="17">
+        <v>14.75</v>
+      </c>
+      <c r="P8" s="17">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -5993,10 +6159,44 @@
       <c r="C9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>64</v>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <v>52.5</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="H9">
+        <v>210</v>
+      </c>
+      <c r="I9">
+        <v>7.8</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1.89</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -6004,31 +6204,44 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3">
-        <v>154</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10">
+        <v>1.54</v>
+      </c>
+      <c r="E10">
         <v>50.2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>22</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>34.200000000000003</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>183</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>8.9</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
+      <c r="L10" s="14"/>
+      <c r="M10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="17">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1.88</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -6036,31 +6249,38 @@
       <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3">
-        <v>160</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11">
+        <v>1.6</v>
+      </c>
+      <c r="E11">
         <v>47.4</v>
       </c>
-      <c r="F11" s="3">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
         <v>35.799999999999997</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>150</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>6.1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
+      <c r="L11" s="14"/>
+      <c r="M11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -6068,10 +6288,44 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
+      <c r="D12">
+        <v>1.59</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>156</v>
+      </c>
+      <c r="I12">
+        <v>4.2</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="P12" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -6079,10 +6333,44 @@
       <c r="C13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>67</v>
+      <c r="D13">
+        <v>1.67</v>
+      </c>
+      <c r="E13">
+        <v>72.7</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>35.9</v>
+      </c>
+      <c r="H13">
+        <v>184</v>
+      </c>
+      <c r="I13">
+        <v>8.9</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="17">
+        <v>59.7</v>
+      </c>
+      <c r="O13" s="17">
+        <v>11.47</v>
+      </c>
+      <c r="P13" s="17">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -6090,10 +6378,44 @@
       <c r="C14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>56</v>
+      <c r="D14">
+        <v>1.62</v>
+      </c>
+      <c r="E14">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>154</v>
+      </c>
+      <c r="I14">
+        <v>5.4</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17">
+        <v>21.5</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1.96</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -6101,10 +6423,44 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
+      <c r="D15">
+        <v>1.6</v>
+      </c>
+      <c r="E15">
+        <v>72</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>28.2</v>
+      </c>
+      <c r="H15">
+        <v>173</v>
+      </c>
+      <c r="I15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J15">
+        <v>17</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="17">
+        <v>31.7</v>
+      </c>
+      <c r="O15" s="17">
+        <v>5.91</v>
+      </c>
+      <c r="P15" s="17">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -6112,10 +6468,44 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>69</v>
+      <c r="D16">
+        <v>1.72</v>
+      </c>
+      <c r="E16">
+        <v>104</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>32.4</v>
+      </c>
+      <c r="H16">
+        <v>172</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>17</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="17">
+        <v>180.6</v>
+      </c>
+      <c r="O16" s="17">
+        <v>14.92</v>
+      </c>
+      <c r="P16" s="17">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -6123,10 +6513,44 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>70</v>
+      <c r="D17">
+        <v>1.56</v>
+      </c>
+      <c r="E17">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>35.5</v>
+      </c>
+      <c r="H17">
+        <v>181</v>
+      </c>
+      <c r="I17">
+        <v>7.1</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1.67</v>
+      </c>
+      <c r="P17" s="17">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -6134,361 +6558,333 @@
       <c r="C18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
+      <c r="D18">
+        <v>1.52</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>24.4</v>
+      </c>
+      <c r="H18">
+        <v>176</v>
+      </c>
+      <c r="I18">
+        <v>6.8</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="17">
+        <v>17.8</v>
+      </c>
+      <c r="O18" s="17">
+        <v>1.87</v>
+      </c>
+      <c r="P18" s="17">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
+      </c>
+      <c r="D19">
+        <v>1.72</v>
+      </c>
+      <c r="E19">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>42.3</v>
+      </c>
+      <c r="H19">
+        <v>182</v>
+      </c>
+      <c r="I19">
+        <v>10.9</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="P20" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="17">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="P21" s="17">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="17">
+        <v>22.9</v>
+      </c>
+      <c r="O22" s="17">
+        <v>3.8</v>
+      </c>
+      <c r="P22" s="17">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="17">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="O23" s="17">
+        <v>5.25</v>
+      </c>
+      <c r="P23" s="17">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="17">
+        <v>3.19</v>
+      </c>
+      <c r="P24" s="17">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="O25" s="17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="P25" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="17">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="O26" s="17">
+        <v>1.89</v>
+      </c>
+      <c r="P26" s="17">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569C36A1-525D-4B0D-A873-C3554146AF13}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2">
-        <v>159.79</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2">
-        <v>9.19</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="2">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
-        <v>69.86</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2">
-        <v>22.15</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="2">
-        <v>8.3699999999999992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.54E-2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2">
-        <v>23.43</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2">
-        <v>3.41</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2">
-        <v>33.31</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="C7" s="2">
-        <v>6.52</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2">
-        <v>176.14</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2">
-        <v>14.58</v>
+        <v>0.8</v>
       </c>
       <c r="D8" s="2">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6.93</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.91</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>17.86</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>164.5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11.43</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="C13" s="2">
-        <v>29.64</v>
-      </c>
-      <c r="D13" s="2">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>25.67</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4.51</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <v>31.47</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6.09</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>169</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16.82</v>
-      </c>
-      <c r="D16" s="2">
-        <v>9.7100000000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5.23</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.53</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>156.25</v>
-      </c>
-      <c r="C20" s="2">
-        <v>6.55</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2">
-        <v>62.17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>14.55</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7.27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21.75</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7.37</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
-        <v>181.5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>12.12</v>
-      </c>
-      <c r="D24" s="2">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.65</v>
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6503,7 +6899,7 @@
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:G100"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6634,7 +7030,7 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -6680,7 +7076,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -6703,7 +7099,7 @@
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
@@ -6772,7 +7168,7 @@
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -6795,7 +7191,7 @@
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -6818,7 +7214,7 @@
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
@@ -6841,7 +7237,7 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -6864,7 +7260,7 @@
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -6887,7 +7283,7 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -6910,7 +7306,7 @@
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
@@ -6933,7 +7329,7 @@
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -7048,7 +7444,7 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
@@ -7094,7 +7490,7 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -7117,7 +7513,7 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
@@ -7186,7 +7582,7 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
@@ -7209,7 +7605,7 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
@@ -7232,7 +7628,7 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>19</v>
@@ -7255,7 +7651,7 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
@@ -7278,7 +7674,7 @@
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>19</v>
@@ -7301,7 +7697,7 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
@@ -7324,7 +7720,7 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -7347,7 +7743,7 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -7462,7 +7858,7 @@
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>20</v>
@@ -7508,7 +7904,7 @@
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>20</v>
@@ -7531,7 +7927,7 @@
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>20</v>
@@ -7600,7 +7996,7 @@
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>20</v>
@@ -7623,7 +8019,7 @@
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>20</v>
@@ -7646,7 +8042,7 @@
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>20</v>
@@ -7669,7 +8065,7 @@
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>20</v>
@@ -7692,7 +8088,7 @@
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>20</v>
@@ -7715,7 +8111,7 @@
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>20</v>
@@ -7738,7 +8134,7 @@
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>20</v>
@@ -7761,7 +8157,7 @@
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>20</v>
@@ -7796,7 +8192,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F56">
         <v>3.4</v>
@@ -7876,7 +8272,7 @@
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
@@ -7922,7 +8318,7 @@
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
@@ -7945,7 +8341,7 @@
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
@@ -8014,7 +8410,7 @@
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
@@ -8037,7 +8433,7 @@
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
@@ -8060,7 +8456,7 @@
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
@@ -8083,7 +8479,7 @@
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
@@ -8106,7 +8502,7 @@
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
@@ -8123,7 +8519,7 @@
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
@@ -8146,7 +8542,7 @@
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
@@ -8169,7 +8565,7 @@
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>

--- a/Eccentric_Thesis.xlsx
+++ b/Eccentric_Thesis.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5a72b3be143b9d/Documents/R/manny_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{1BF1A4C4-A8EA-42B0-86D1-EDAA0F949A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425703E9-8A9D-4EF4-BCDE-F268B65A14AE}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{1BF1A4C4-A8EA-42B0-86D1-EDAA0F949A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F183F99-7EEA-46B7-82C8-9A286BCAB154}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="1920" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{0ABA7DC7-0BF8-4892-8FE9-20E1210F99FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0ABA7DC7-0BF8-4892-8FE9-20E1210F99FA}"/>
   </bookViews>
   <sheets>
     <sheet name="ESS_BFP" sheetId="1" r:id="rId1"/>
     <sheet name="FMD_VOP" sheetId="3" r:id="rId2"/>
     <sheet name="Descriptives" sheetId="5" r:id="rId3"/>
     <sheet name="Tables" sheetId="6" r:id="rId4"/>
-    <sheet name="V3_data" sheetId="4" r:id="rId5"/>
+    <sheet name="FMD" sheetId="7" r:id="rId5"/>
+    <sheet name="V3_data" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateCount="1000" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="84">
   <si>
     <t>Condition</t>
   </si>
@@ -282,6 +283,15 @@
   </si>
   <si>
     <t>Lower Post ischemia</t>
+  </si>
+  <si>
+    <t>FMD_Basal</t>
+  </si>
+  <si>
+    <t>FMD_Peak</t>
+  </si>
+  <si>
+    <t>FMD_Difference</t>
   </si>
 </sst>
 </file>
@@ -4648,22 +4658,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD63CB32-0AF8-4A69-840E-0D4A9A6F29DD}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -4697,6 +4710,15 @@
       <c r="J1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4729,6 +4751,16 @@
       <c r="J2" s="4">
         <v>5.34</v>
       </c>
+      <c r="K2">
+        <v>4.45</v>
+      </c>
+      <c r="L2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M2">
+        <f>((L2-K2)/K2)*100</f>
+        <v>4.494382022471914</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4765,6 +4797,16 @@
         <f>(5.35+4.72)</f>
         <v>10.07</v>
       </c>
+      <c r="K3">
+        <v>2.85</v>
+      </c>
+      <c r="L3">
+        <v>3.37</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M19" si="0">((L3-K3)/K3)*100</f>
+        <v>18.245614035087719</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -4801,6 +4843,16 @@
         <f>(3.68+3.87)/2</f>
         <v>3.7750000000000004</v>
       </c>
+      <c r="K4">
+        <v>3.15</v>
+      </c>
+      <c r="L4">
+        <v>3.28</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>4.126984126984123</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -4837,6 +4889,16 @@
         <f>(10.61+10)/2</f>
         <v>10.305</v>
       </c>
+      <c r="K5">
+        <v>3.44</v>
+      </c>
+      <c r="L5">
+        <v>3.66</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6.3953488372093084</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4869,7 +4931,16 @@
       <c r="J6" s="4">
         <v>6.19</v>
       </c>
-      <c r="M6"/>
+      <c r="K6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="L6">
+        <v>4.03</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.24875621890548946</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4906,6 +4977,16 @@
         <f>(4.1+5.8+4.67)/3</f>
         <v>4.8566666666666665</v>
       </c>
+      <c r="K7">
+        <v>3.57</v>
+      </c>
+      <c r="L7">
+        <v>3.96</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>10.924369747899163</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4942,6 +5023,16 @@
         <f>(9.44+7.23+5.08)/3</f>
         <v>7.25</v>
       </c>
+      <c r="K8">
+        <v>3.4</v>
+      </c>
+      <c r="L8">
+        <v>3.76</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>10.588235294117645</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4956,6 +5047,16 @@
       <c r="D9" s="3">
         <v>0.59171597633136142</v>
       </c>
+      <c r="K9">
+        <v>3.38</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.59171597633136142</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4992,7 +5093,16 @@
         <f>(3.79+2.74+1.39)/3</f>
         <v>2.64</v>
       </c>
-      <c r="M10"/>
+      <c r="K10">
+        <v>3.23</v>
+      </c>
+      <c r="L10">
+        <v>3.33</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>3.0959752321981453</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5029,6 +5139,16 @@
         <f>(2.57+2.4+1.97)/3</f>
         <v>2.313333333333333</v>
       </c>
+      <c r="K11">
+        <v>3.51</v>
+      </c>
+      <c r="L11">
+        <v>3.72</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>5.9829059829059954</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5065,7 +5185,16 @@
         <f>(2.93+2.33+1.65)/3</f>
         <v>2.3033333333333332</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="K12">
+        <v>2.91</v>
+      </c>
+      <c r="L12">
+        <v>3.22</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>10.652920962199314</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5089,6 +5218,16 @@
       <c r="G13" s="4">
         <v>9.4700000000000006</v>
       </c>
+      <c r="K13">
+        <v>3.74</v>
+      </c>
+      <c r="L13">
+        <v>3.96</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764639</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5112,6 +5251,16 @@
       <c r="J14" s="4">
         <v>8.7200000000000006</v>
       </c>
+      <c r="K14">
+        <v>3.57</v>
+      </c>
+      <c r="L14">
+        <v>3.48</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>-2.5210084033613409</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5135,6 +5284,16 @@
       <c r="J15" s="4">
         <v>3.45</v>
       </c>
+      <c r="K15">
+        <v>3.33</v>
+      </c>
+      <c r="L15">
+        <v>3.3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>-0.90090090090090835</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5155,8 +5314,18 @@
       <c r="H16" s="4">
         <v>7.39</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>4.51</v>
+      </c>
+      <c r="L16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>-2.43902439024389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -5166,8 +5335,15 @@
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17" t="e">
+        <f>((L17-K17)/K17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -5189,8 +5365,18 @@
       <c r="G18" s="4">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>3.35</v>
+      </c>
+      <c r="L18">
+        <v>3.47</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>3.5820895522388088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -5221,8 +5407,18 @@
       <c r="J19" s="4">
         <v>9.74</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="L19">
+        <v>4.13</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>2.7363184079602072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -5255,8 +5451,17 @@
       <c r="J20" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>4.71</v>
+      </c>
+      <c r="L20">
+        <v>4.83</v>
+      </c>
+      <c r="M20">
+        <v>2.5477707006369448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -5291,8 +5496,17 @@
         <f>(18.97+17.08+16.74)/3</f>
         <v>17.596666666666664</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>3.29</v>
+      </c>
+      <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>6.3829787234042552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -5325,8 +5539,17 @@
       <c r="J22" s="4">
         <v>5.24</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3.92</v>
+      </c>
+      <c r="M22">
+        <v>30.666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -5358,8 +5581,17 @@
       <c r="J23" s="4">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>3.3</v>
+      </c>
+      <c r="L23">
+        <v>3.49</v>
+      </c>
+      <c r="M23">
+        <v>5.7575757575757693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -5390,8 +5622,17 @@
       <c r="J24" s="4">
         <v>5.78</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>3.66</v>
+      </c>
+      <c r="L24">
+        <v>4.16</v>
+      </c>
+      <c r="M24">
+        <v>13.661202185792348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -5426,8 +5667,17 @@
         <f>(0.64+0.51+0.71)/3</f>
         <v>0.62</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>4.16</v>
+      </c>
+      <c r="M25">
+        <v>4.0000000000000036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -5462,8 +5712,17 @@
         <f>(5.51+4.47)/2</f>
         <v>4.99</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>3.3</v>
+      </c>
+      <c r="L26">
+        <v>3.61</v>
+      </c>
+      <c r="M26">
+        <v>9.3939393939393963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -5476,8 +5735,17 @@
       <c r="D27" s="3">
         <v>21.698113207547166</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>3.18</v>
+      </c>
+      <c r="L27">
+        <v>3.87</v>
+      </c>
+      <c r="M27">
+        <v>21.698113207547166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -5508,8 +5776,17 @@
       <c r="I28" s="4">
         <v>9.74</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>3.33</v>
+      </c>
+      <c r="L28">
+        <v>3.36</v>
+      </c>
+      <c r="M28">
+        <v>0.90090090090089503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -5540,8 +5817,17 @@
       <c r="I29" s="4">
         <v>10.37</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>3.8</v>
+      </c>
+      <c r="L29">
+        <v>3.84</v>
+      </c>
+      <c r="M29">
+        <v>1.0526315789473695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -5572,8 +5858,17 @@
       <c r="J30" s="4">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>3.05</v>
+      </c>
+      <c r="L30">
+        <v>3.21</v>
+      </c>
+      <c r="M30">
+        <v>5.2459016393442672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5604,8 +5899,17 @@
       <c r="J31" s="4">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>4.12</v>
+      </c>
+      <c r="L31">
+        <v>4.25</v>
+      </c>
+      <c r="M31">
+        <v>3.15533980582524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5627,8 +5931,17 @@
       <c r="G32" s="4">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>3.42</v>
+      </c>
+      <c r="L32">
+        <v>4.29</v>
+      </c>
+      <c r="M32">
+        <v>25.438596491228072</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -5641,8 +5954,17 @@
       <c r="D33" s="3">
         <v>0.28409090909090301</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>3.52</v>
+      </c>
+      <c r="L33">
+        <v>3.53</v>
+      </c>
+      <c r="M33">
+        <v>0.28409090909090301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -5664,8 +5986,17 @@
       <c r="J34" s="4">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>4.21</v>
+      </c>
+      <c r="L34">
+        <v>4.45</v>
+      </c>
+      <c r="M34">
+        <v>5.700712589073639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -5678,8 +6009,17 @@
       <c r="D35" s="3">
         <v>-2.6239067055393672</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>3.43</v>
+      </c>
+      <c r="L35">
+        <v>3.34</v>
+      </c>
+      <c r="M35">
+        <v>-2.6239067055393672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -5704,8 +6044,17 @@
       <c r="H36" s="4">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>3.45</v>
+      </c>
+      <c r="L36">
+        <v>3.79</v>
+      </c>
+      <c r="M36">
+        <v>9.85507246376811</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -5718,8 +6067,17 @@
       <c r="D37" s="3">
         <v>12.468827930174564</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>4.01</v>
+      </c>
+      <c r="L37">
+        <v>4.51</v>
+      </c>
+      <c r="M37">
+        <v>12.468827930174564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -5729,7 +6087,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -5739,7 +6097,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -5749,7 +6107,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
@@ -5759,7 +6117,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
@@ -5769,7 +6127,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
@@ -5779,7 +6137,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
@@ -6741,8 +7099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569C36A1-525D-4B0D-A873-C3554146AF13}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6894,12 +7252,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D4335B-9C85-46E0-8522-60C6F20E3CA0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63627A-C8C7-460E-91D8-FFF458A1B100}">
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Eccentric_Thesis.xlsx
+++ b/Eccentric_Thesis.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documents\R\manny_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA3C265-B970-49B0-832C-7B718DE54BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6002E124-BE71-436D-8CA6-3CA7516DD17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0ABA7DC7-0BF8-4892-8FE9-20E1210F99FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0ABA7DC7-0BF8-4892-8FE9-20E1210F99FA}"/>
   </bookViews>
   <sheets>
     <sheet name="ESS_BFP" sheetId="1" r:id="rId1"/>
     <sheet name="FMD_VOP" sheetId="3" r:id="rId2"/>
     <sheet name="Descriptives" sheetId="5" r:id="rId3"/>
     <sheet name="Tables" sheetId="6" r:id="rId4"/>
-    <sheet name="FMD" sheetId="7" r:id="rId5"/>
-    <sheet name="V3_data" sheetId="4" r:id="rId6"/>
+    <sheet name="V3_data" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateCount="1000" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="66">
   <si>
     <t>Condition</t>
   </si>
@@ -186,6 +185,9 @@
     <t>Re_Antegrade</t>
   </si>
   <si>
+    <t>Descriptives</t>
+  </si>
+  <si>
     <t>mean</t>
   </si>
   <si>
@@ -193,6 +195,9 @@
   </si>
   <si>
     <t>se</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
   <si>
     <t>ECCBF06</t>
@@ -231,59 +236,14 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>t or w</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>magnitude</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>Upper Basal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moderate </t>
-  </si>
-  <si>
-    <t>effect size  (Wilcoxon effect or Hedges g)</t>
-  </si>
-  <si>
-    <t>Upper Ischemia</t>
-  </si>
-  <si>
-    <t>Upper Post ischemia</t>
-  </si>
-  <si>
-    <t>Lower Basal</t>
-  </si>
-  <si>
-    <t>Lower Ischemia</t>
-  </si>
-  <si>
-    <t>Lower Post ischemia</t>
-  </si>
-  <si>
-    <t>FMD_Basal</t>
-  </si>
-  <si>
-    <t>FMD_Peak</t>
-  </si>
-  <si>
-    <t>FMD_Difference</t>
-  </si>
-  <si>
-    <t>VO2</t>
+    <t>VO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,12 +274,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -369,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -389,10 +343,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -711,9 +661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03449FF-6700-4FFB-AF3E-80517BB2E142}">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,16 +675,15 @@
     <col min="5" max="5" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4"/>
-    <col min="10" max="10" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10" style="4"/>
+    <col min="9" max="9" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -762,32 +711,32 @@
       <c r="H1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>78</v>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -815,29 +764,32 @@
       <c r="H2" s="6">
         <v>0.51</v>
       </c>
+      <c r="I2" s="5">
+        <v>4.4800000000000004</v>
+      </c>
       <c r="J2" s="5">
+        <v>84.1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>29.142183307842274</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1044.1355918839358</v>
+      </c>
+      <c r="M2" s="5">
         <v>4.4800000000000004</v>
       </c>
-      <c r="K2" s="5">
-        <v>84.1</v>
-      </c>
-      <c r="L2" s="7">
-        <v>29.142183307842274</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1044.1355918839358</v>
-      </c>
       <c r="N2" s="5">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="O2" s="5">
         <v>44.1</v>
       </c>
+      <c r="O2" s="7">
+        <v>15.28145402943929</v>
+      </c>
       <c r="P2" s="7">
-        <v>15.28145402943929</v>
-      </c>
-      <c r="Q2" s="7">
         <v>547.51937695697461</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>4.8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -865,32 +817,32 @@
       <c r="H3" s="8">
         <v>0.42</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
+        <v>2.71</v>
+      </c>
+      <c r="J3" s="5">
+        <v>122.8</v>
+      </c>
+      <c r="K3" s="7">
+        <v>55.041028747353458</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1130.0665802178055</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2.71</v>
+      </c>
+      <c r="N3" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O3" s="7">
+        <v>6.039614240812603</v>
+      </c>
+      <c r="P3" s="7">
+        <v>46.786715092614287</v>
+      </c>
+      <c r="Q3" s="4">
         <v>5</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2.71</v>
-      </c>
-      <c r="K3" s="5">
-        <v>122.8</v>
-      </c>
-      <c r="L3" s="7">
-        <v>55.041028747353458</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1130.0665802178055</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2.71</v>
-      </c>
-      <c r="O3" s="5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P3" s="7">
-        <v>6.039614240812603</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>46.786715092614287</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -918,32 +870,32 @@
       <c r="H4" s="4">
         <v>0.5</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="J4" s="5">
+        <v>107.5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>46.85476118237132</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1026.8988430768347</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="N4" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="O4" s="7">
+        <v>12.916875176826064</v>
+      </c>
+      <c r="P4" s="7">
+        <v>283.71065711053018</v>
+      </c>
+      <c r="Q4" s="4">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="J4" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K4" s="5">
-        <v>107.5</v>
-      </c>
-      <c r="L4" s="7">
-        <v>46.85476118237132</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1026.8988430768347</v>
-      </c>
-      <c r="N4" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="O4" s="5">
-        <v>29.7</v>
-      </c>
-      <c r="P4" s="7">
-        <v>12.916875176826064</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>283.71065711053018</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -971,37 +923,37 @@
       <c r="H5" s="4">
         <v>0.43</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>92.7</v>
+      </c>
+      <c r="K5" s="7">
+        <v>35.496196399024996</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1000.21645296509</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>6.17</v>
+      </c>
+      <c r="P5" s="7">
+        <v>89.35</v>
+      </c>
+      <c r="Q5" s="4">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="K5" s="5">
-        <v>92.7</v>
-      </c>
-      <c r="L5" s="7">
-        <v>35.496196399024996</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1000.21645296509</v>
-      </c>
-      <c r="N5" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>6.17</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>89.35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>45</v>
@@ -1024,32 +976,32 @@
       <c r="H6" s="4">
         <v>0.5</v>
       </c>
-      <c r="I6" s="4">
-        <v>5.7</v>
+      <c r="I6" s="5">
+        <v>3.7</v>
       </c>
       <c r="J6" s="5">
+        <v>127.8</v>
+      </c>
+      <c r="K6" s="7">
+        <v>50.902923718459945</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1340.3612916632726</v>
+      </c>
+      <c r="M6" s="5">
         <v>3.7</v>
       </c>
-      <c r="K6" s="5">
-        <v>127.8</v>
-      </c>
-      <c r="L6" s="7">
-        <v>50.902923718459945</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1340.3612916632726</v>
-      </c>
       <c r="N6" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="O6" s="5">
         <v>46.5</v>
       </c>
+      <c r="O6" s="7">
+        <v>18.612192318380586</v>
+      </c>
       <c r="P6" s="7">
-        <v>18.612192318380586</v>
-      </c>
-      <c r="Q6" s="7">
         <v>487.69014133288096</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5.9</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1077,37 +1029,37 @@
       <c r="H7" s="4">
         <v>0.42</v>
       </c>
-      <c r="I7" s="4">
-        <v>7.6</v>
+      <c r="I7" s="5">
+        <v>3.64</v>
       </c>
       <c r="J7" s="5">
+        <v>121.2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>41.295252011922507</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1498.0985283770115</v>
+      </c>
+      <c r="M7" s="5">
         <v>3.64</v>
       </c>
-      <c r="K7" s="5">
-        <v>121.2</v>
-      </c>
-      <c r="L7" s="7">
-        <v>41.295252011922507</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1498.0985283770115</v>
-      </c>
       <c r="N7" s="5">
-        <v>3.64</v>
-      </c>
-      <c r="O7" s="5">
         <v>18.3</v>
       </c>
+      <c r="O7" s="7">
+        <v>6.3698732083088316</v>
+      </c>
       <c r="P7" s="7">
-        <v>6.3698732083088316</v>
-      </c>
-      <c r="Q7" s="7">
         <v>226.19804512623188</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>7.4</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
@@ -1130,37 +1082,37 @@
       <c r="H8" s="4">
         <v>0.43</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="J8" s="5">
+        <v>131.6</v>
+      </c>
+      <c r="K8" s="7">
+        <v>51.654115965650561</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1389.3571752334394</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="N8" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="O8" s="7">
+        <v>6.175439746166532</v>
+      </c>
+      <c r="P8" s="7">
+        <v>89.3463619025691</v>
+      </c>
+      <c r="Q8" s="4">
         <v>5.4</v>
-      </c>
-      <c r="J8" s="5">
-        <v>3.18</v>
-      </c>
-      <c r="K8" s="5">
-        <v>131.6</v>
-      </c>
-      <c r="L8" s="7">
-        <v>51.654115965650561</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1389.3571752334394</v>
-      </c>
-      <c r="N8" s="5">
-        <v>3.18</v>
-      </c>
-      <c r="O8" s="5">
-        <v>11.6</v>
-      </c>
-      <c r="P8" s="7">
-        <v>6.175439746166532</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>89.3463619025691</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>45</v>
@@ -1183,32 +1135,32 @@
       <c r="H9" s="4">
         <v>0.45</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
+        <v>3.19</v>
+      </c>
+      <c r="J9" s="5">
+        <v>114.1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>46.56634795464452</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1155.0370764002535</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3.19</v>
+      </c>
+      <c r="N9" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="O9" s="7">
+        <v>7.2212010880282778</v>
+      </c>
+      <c r="P9" s="7">
+        <v>177.1529258282597</v>
+      </c>
+      <c r="Q9" s="4">
         <v>5.2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>3.19</v>
-      </c>
-      <c r="K9" s="5">
-        <v>114.1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>46.56634795464452</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1155.0370764002535</v>
-      </c>
-      <c r="N9" s="5">
-        <v>3.19</v>
-      </c>
-      <c r="O9" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="P9" s="7">
-        <v>7.2212010880282778</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>177.1529258282597</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1236,32 +1188,32 @@
       <c r="H10" s="4">
         <v>0.46</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="J10" s="7">
+        <v>116.3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>43.226940638467397</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1298.9606261882695</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="O10" s="7">
+        <v>19.170564272929138</v>
+      </c>
+      <c r="P10" s="7">
+        <v>564.03707328037501</v>
+      </c>
+      <c r="Q10" s="4">
         <v>5.2</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="K10" s="7">
-        <v>116.3</v>
-      </c>
-      <c r="L10" s="7">
-        <v>43.226940638467397</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1298.9606261882695</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="O10" s="7">
-        <v>50.5</v>
-      </c>
-      <c r="P10" s="7">
-        <v>19.170564272929138</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>564.03707328037501</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1289,37 +1241,37 @@
       <c r="H11" s="4">
         <v>0.49</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
+        <v>3.43</v>
+      </c>
+      <c r="J11" s="7">
+        <v>105.3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>43.583675554950773</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1047.1721502806638</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3.43</v>
+      </c>
+      <c r="N11" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>8.07451055026341</v>
+      </c>
+      <c r="P11" s="7">
+        <v>190.9373721309473</v>
+      </c>
+      <c r="Q11" s="4">
         <v>5.8</v>
-      </c>
-      <c r="J11" s="7">
-        <v>3.43</v>
-      </c>
-      <c r="K11" s="7">
-        <v>105.3</v>
-      </c>
-      <c r="L11" s="7">
-        <v>43.583675554950773</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1047.1721502806638</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3.43</v>
-      </c>
-      <c r="O11" s="7">
-        <v>19.2</v>
-      </c>
-      <c r="P11" s="7">
-        <v>8.07451055026341</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>190.9373721309473</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
@@ -1342,37 +1294,37 @@
       <c r="H12" s="4">
         <v>0.45</v>
       </c>
-      <c r="I12" s="4">
-        <v>4.2</v>
+      <c r="I12" s="5">
+        <v>3</v>
       </c>
       <c r="J12" s="5">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="K12" s="7">
+        <v>62.509285935892031</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1378.5083919354418</v>
+      </c>
+      <c r="M12" s="5">
         <v>3</v>
       </c>
-      <c r="K12" s="5">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="L12" s="7">
-        <v>62.509285935892031</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1378.5083919354418</v>
-      </c>
       <c r="N12" s="5">
-        <v>3</v>
-      </c>
-      <c r="O12" s="5">
         <v>26.3</v>
       </c>
+      <c r="O12" s="7">
+        <v>11.484450837587611</v>
+      </c>
       <c r="P12" s="7">
-        <v>11.484450837587611</v>
-      </c>
-      <c r="Q12" s="7">
         <v>250.37825074518034</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -1395,37 +1347,37 @@
       <c r="H13" s="4">
         <v>0.47</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="J13" s="5">
+        <v>109.7</v>
+      </c>
+      <c r="K13" s="7">
+        <v>39.377754836258823</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1287.7318016098084</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="N13" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="O13" s="7">
+        <v>6.9533607574298157</v>
+      </c>
+      <c r="P13" s="7">
+        <v>185.78640089273486</v>
+      </c>
+      <c r="Q13" s="4">
         <v>3.7</v>
-      </c>
-      <c r="J13" s="5">
-        <v>3.87</v>
-      </c>
-      <c r="K13" s="5">
-        <v>109.7</v>
-      </c>
-      <c r="L13" s="7">
-        <v>39.377754836258823</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1287.7318016098084</v>
-      </c>
-      <c r="N13" s="5">
-        <v>3.87</v>
-      </c>
-      <c r="O13" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="P13" s="7">
-        <v>6.9533607574298157</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>185.78640089273486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -1448,37 +1400,37 @@
       <c r="H14" s="4">
         <v>0.54</v>
       </c>
-      <c r="I14" s="4">
-        <v>7.4</v>
+      <c r="I14" s="5">
+        <v>4.1500000000000004</v>
       </c>
       <c r="J14" s="5">
+        <v>125</v>
+      </c>
+      <c r="K14" s="7">
+        <v>48.202277049057059</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1343.4486619396127</v>
+      </c>
+      <c r="M14" s="5">
         <v>4.1500000000000004</v>
       </c>
-      <c r="K14" s="5">
-        <v>125</v>
-      </c>
-      <c r="L14" s="7">
-        <v>48.202277049057059</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1343.4486619396127</v>
-      </c>
       <c r="N14" s="5">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="O14" s="5">
         <v>17.5</v>
       </c>
+      <c r="O14" s="7">
+        <v>8.0363686089356126</v>
+      </c>
       <c r="P14" s="7">
-        <v>8.0363686089356126</v>
-      </c>
-      <c r="Q14" s="7">
         <v>158.62405887961691</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -1501,37 +1453,37 @@
       <c r="H15" s="4">
         <v>0.4</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
+        <v>3.02</v>
+      </c>
+      <c r="J15" s="5">
+        <v>111.9</v>
+      </c>
+      <c r="K15" s="7">
+        <v>43.007633022827122</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1200.5603635013388</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3.02</v>
+      </c>
+      <c r="N15" s="5">
+        <v>17</v>
+      </c>
+      <c r="O15" s="7">
+        <v>6.6801159222555402</v>
+      </c>
+      <c r="P15" s="7">
+        <v>182.39076121110597</v>
+      </c>
+      <c r="Q15" s="4">
         <v>5.7</v>
-      </c>
-      <c r="J15" s="5">
-        <v>3.02</v>
-      </c>
-      <c r="K15" s="5">
-        <v>111.9</v>
-      </c>
-      <c r="L15" s="7">
-        <v>43.007633022827122</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1200.5603635013388</v>
-      </c>
-      <c r="N15" s="5">
-        <v>3.02</v>
-      </c>
-      <c r="O15" s="5">
-        <v>17</v>
-      </c>
-      <c r="P15" s="7">
-        <v>6.6801159222555402</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>182.39076121110597</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1554,37 +1506,37 @@
       <c r="H16" s="4">
         <v>0.53</v>
       </c>
-      <c r="I16" s="4">
-        <v>3.9</v>
+      <c r="I16" s="5">
+        <v>4.79</v>
       </c>
       <c r="J16" s="5">
+        <v>87.7</v>
+      </c>
+      <c r="K16" s="7">
+        <v>30.242186654232562</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1112.7685168589614</v>
+      </c>
+      <c r="M16" s="5">
         <v>4.79</v>
       </c>
-      <c r="K16" s="5">
-        <v>87.7</v>
-      </c>
-      <c r="L16" s="7">
-        <v>30.242186654232562</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1112.7685168589614</v>
-      </c>
       <c r="N16" s="5">
-        <v>4.79</v>
-      </c>
-      <c r="O16" s="5">
         <v>30.7</v>
       </c>
+      <c r="O16" s="7">
+        <v>10.654870791191481</v>
+      </c>
       <c r="P16" s="7">
-        <v>10.654870791191481</v>
-      </c>
-      <c r="Q16" s="7">
         <v>389.53242266328527</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -1607,37 +1559,37 @@
       <c r="H17" s="4">
         <v>0.49</v>
       </c>
-      <c r="I17" s="4">
-        <v>3.6</v>
+      <c r="I17" s="5">
+        <v>3.23</v>
       </c>
       <c r="J17" s="5">
+        <v>124.5</v>
+      </c>
+      <c r="K17" s="7">
+        <v>54.670845100947382</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1165.9165473438786</v>
+      </c>
+      <c r="M17" s="5">
         <v>3.23</v>
       </c>
-      <c r="K17" s="5">
-        <v>124.5</v>
-      </c>
-      <c r="L17" s="7">
-        <v>54.670845100947382</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1165.9165473438786</v>
-      </c>
       <c r="N17" s="5">
-        <v>3.23</v>
-      </c>
-      <c r="O17" s="5">
         <v>13.3</v>
       </c>
+      <c r="O17" s="7">
+        <v>7.1025566202085377</v>
+      </c>
       <c r="P17" s="7">
-        <v>7.1025566202085377</v>
-      </c>
-      <c r="Q17" s="7">
         <v>102.57201092153565</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
@@ -1660,37 +1612,37 @@
       <c r="H18" s="4">
         <v>0.37</v>
       </c>
-      <c r="I18" s="4">
-        <v>5.5</v>
+      <c r="I18" s="5">
+        <v>3.45</v>
       </c>
       <c r="J18" s="5">
+        <v>100.9</v>
+      </c>
+      <c r="K18" s="7">
+        <v>32.677930438027737</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1323.3424594759158</v>
+      </c>
+      <c r="M18" s="5">
         <v>3.45</v>
       </c>
-      <c r="K18" s="5">
-        <v>100.9</v>
-      </c>
-      <c r="L18" s="7">
-        <v>32.677930438027737</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1323.3424594759158</v>
-      </c>
       <c r="N18" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="O18" s="5">
         <v>11</v>
       </c>
+      <c r="O18" s="7">
+        <v>5.4040781627186858</v>
+      </c>
       <c r="P18" s="7">
-        <v>5.4040781627186858</v>
-      </c>
-      <c r="Q18" s="7">
         <v>91.997780897479643</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
@@ -1713,32 +1665,32 @@
       <c r="H19" s="4">
         <v>0.49</v>
       </c>
-      <c r="I19" s="4">
-        <v>5.8</v>
+      <c r="I19" s="5">
+        <v>3.82</v>
       </c>
       <c r="J19" s="5">
+        <v>107.5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>40.6368093424975</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1190.6042253640289</v>
+      </c>
+      <c r="M19" s="5">
         <v>3.82</v>
       </c>
-      <c r="K19" s="5">
-        <v>107.5</v>
-      </c>
-      <c r="L19" s="7">
-        <v>40.6368093424975</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1190.6042253640289</v>
-      </c>
       <c r="N19" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="O19" s="5">
         <v>32.9</v>
       </c>
+      <c r="O19" s="7">
+        <v>12.692470530552582</v>
+      </c>
       <c r="P19" s="7">
-        <v>12.692470530552582</v>
-      </c>
-      <c r="Q19" s="7">
         <v>364.38026990210739</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>5.6</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1766,29 +1718,32 @@
       <c r="H20" s="6">
         <v>0.51</v>
       </c>
+      <c r="I20" s="7">
+        <v>4.2300000000000004</v>
+      </c>
       <c r="J20" s="7">
+        <v>80.2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>29.764554321271405</v>
+      </c>
+      <c r="L20" s="7">
+        <v>940.15102929191892</v>
+      </c>
+      <c r="M20" s="7">
         <v>4.2300000000000004</v>
       </c>
-      <c r="K20" s="7">
-        <v>80.2</v>
-      </c>
-      <c r="L20" s="7">
-        <v>29.764554321271405</v>
-      </c>
-      <c r="M20" s="7">
-        <v>940.15102929191892</v>
-      </c>
       <c r="N20" s="7">
-        <v>4.2300000000000004</v>
+        <v>49.3</v>
       </c>
       <c r="O20" s="7">
-        <v>49.3</v>
+        <v>18.296664938138154</v>
       </c>
       <c r="P20" s="7">
-        <v>18.296664938138154</v>
-      </c>
-      <c r="Q20" s="7">
         <v>577.92326364203984</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1816,32 +1771,32 @@
       <c r="H21" s="8">
         <v>0.42</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="7">
+        <v>2.91</v>
+      </c>
+      <c r="J21" s="7">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="K21" s="7">
+        <v>68.945455448031055</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1544.5015231324603</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2.91</v>
+      </c>
+      <c r="N21" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="O21" s="7">
+        <v>11.601186681274582</v>
+      </c>
+      <c r="P21" s="7">
+        <v>259.88733242727898</v>
+      </c>
+      <c r="Q21" s="4">
         <v>18.8</v>
-      </c>
-      <c r="J21" s="7">
-        <v>2.91</v>
-      </c>
-      <c r="K21" s="7">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="L21" s="7">
-        <v>68.945455448031055</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1544.5015231324603</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2.91</v>
-      </c>
-      <c r="O21" s="7">
-        <v>26.3</v>
-      </c>
-      <c r="P21" s="7">
-        <v>11.601186681274582</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>259.88733242727898</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1869,32 +1824,32 @@
       <c r="H22" s="4">
         <v>0.5</v>
       </c>
-      <c r="I22" s="4">
-        <v>20.8</v>
+      <c r="I22" s="7">
+        <v>3.92</v>
       </c>
       <c r="J22" s="7">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="K22" s="7">
+        <v>62.464910647328708</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1736.7381507357793</v>
+      </c>
+      <c r="M22" s="7">
         <v>3.92</v>
       </c>
-      <c r="K22" s="7">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="L22" s="7">
-        <v>62.464910647328708</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1736.7381507357793</v>
-      </c>
       <c r="N22" s="7">
-        <v>3.92</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="O22" s="7">
-        <v>37.799999999999997</v>
+        <v>15.106677047146672</v>
       </c>
       <c r="P22" s="7">
-        <v>15.106677047146672</v>
-      </c>
-      <c r="Q22" s="7">
         <v>420.01728789387352</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>22.6</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1922,43 +1877,43 @@
       <c r="H23" s="4">
         <v>0.43</v>
       </c>
-      <c r="I23" s="4">
-        <v>16</v>
+      <c r="I23" s="7">
+        <v>3.17</v>
       </c>
       <c r="J23" s="7">
+        <v>141.1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>56.647410226957206</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1484.9682734956311</v>
+      </c>
+      <c r="M23" s="7">
         <v>3.17</v>
       </c>
-      <c r="K23" s="7">
-        <v>141.1</v>
-      </c>
-      <c r="L23" s="7">
-        <v>56.647410226957206</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1484.9682734956311</v>
-      </c>
       <c r="N23" s="7">
-        <v>3.17</v>
+        <v>26.3</v>
       </c>
       <c r="O23" s="7">
-        <v>26.3</v>
+        <v>10.558659737554745</v>
       </c>
       <c r="P23" s="7">
-        <v>10.558659737554745</v>
-      </c>
-      <c r="Q23" s="7">
         <v>276.78714098465696</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4">
         <v>90</v>
@@ -1975,32 +1930,32 @@
       <c r="H24" s="4">
         <v>0.5</v>
       </c>
-      <c r="I24" s="4">
-        <v>19.8</v>
+      <c r="I24" s="7">
+        <v>3.41</v>
       </c>
       <c r="J24" s="7">
+        <v>107.5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>46.686897097780729</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1039.0875533804174</v>
+      </c>
+      <c r="M24" s="7">
         <v>3.41</v>
       </c>
-      <c r="K24" s="7">
-        <v>107.5</v>
-      </c>
-      <c r="L24" s="7">
-        <v>46.686897097780729</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1039.0875533804174</v>
-      </c>
       <c r="N24" s="7">
-        <v>3.41</v>
+        <v>41.7</v>
       </c>
       <c r="O24" s="7">
-        <v>41.7</v>
+        <v>18.110173106767032</v>
       </c>
       <c r="P24" s="7">
-        <v>18.110173106767032</v>
-      </c>
-      <c r="Q24" s="7">
         <v>403.06931140431084</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>21.5</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2028,37 +1983,37 @@
       <c r="H25" s="4">
         <v>0.42</v>
       </c>
-      <c r="I25" s="4">
-        <v>15.4</v>
+      <c r="I25" s="5">
+        <v>3.92</v>
       </c>
       <c r="J25" s="5">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="K25" s="5">
+        <v>52.704121620657645</v>
+      </c>
+      <c r="L25" s="5">
+        <v>2080.5656256629704</v>
+      </c>
+      <c r="M25" s="5">
         <v>3.92</v>
       </c>
-      <c r="K25" s="5">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="L25" s="5">
-        <v>52.704121620657645</v>
-      </c>
-      <c r="M25" s="5">
-        <v>2080.5656256629704</v>
-      </c>
       <c r="N25" s="5">
-        <v>3.92</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="O25" s="5">
-        <v>37.799999999999997</v>
+        <v>12.746102349717585</v>
       </c>
       <c r="P25" s="5">
-        <v>12.746102349717585</v>
-      </c>
-      <c r="Q25" s="5">
         <v>503.16942194536313</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>12.7</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>37</v>
@@ -2081,37 +2036,37 @@
       <c r="H26" s="4">
         <v>0.43</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="J26" s="5">
+        <v>141.1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>58.522779238099169</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1484.9682734956311</v>
+      </c>
+      <c r="M26" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="N26" s="5">
+        <v>26.3</v>
+      </c>
+      <c r="O26" s="5">
+        <v>10.908214698525926</v>
+      </c>
+      <c r="P26" s="5">
+        <v>276.78714098465696</v>
+      </c>
+      <c r="Q26" s="4">
         <v>22</v>
-      </c>
-      <c r="J26" s="5">
-        <v>3.17</v>
-      </c>
-      <c r="K26" s="5">
-        <v>141.1</v>
-      </c>
-      <c r="L26" s="5">
-        <v>58.522779238099169</v>
-      </c>
-      <c r="M26" s="5">
-        <v>1484.9682734956311</v>
-      </c>
-      <c r="N26" s="5">
-        <v>3.17</v>
-      </c>
-      <c r="O26" s="5">
-        <v>26.3</v>
-      </c>
-      <c r="P26" s="5">
-        <v>10.908214698525926</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>276.78714098465696</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>37</v>
@@ -2134,32 +2089,32 @@
       <c r="H27" s="4">
         <v>0.45</v>
       </c>
-      <c r="I27" s="4">
-        <v>12.6</v>
+      <c r="I27" s="5">
+        <v>3.38</v>
       </c>
       <c r="J27" s="5">
+        <v>151.4</v>
+      </c>
+      <c r="K27" s="5">
+        <v>59.751207522883085</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1623.9108112843171</v>
+      </c>
+      <c r="M27" s="5">
         <v>3.38</v>
       </c>
-      <c r="K27" s="5">
-        <v>151.4</v>
-      </c>
-      <c r="L27" s="5">
-        <v>59.751207522883085</v>
-      </c>
-      <c r="M27" s="5">
-        <v>1623.9108112843171</v>
-      </c>
       <c r="N27" s="5">
-        <v>3.38</v>
+        <v>13.2</v>
       </c>
       <c r="O27" s="5">
-        <v>13.2</v>
+        <v>6.4997683229927663</v>
       </c>
       <c r="P27" s="5">
-        <v>6.4997683229927663</v>
-      </c>
-      <c r="Q27" s="5">
         <v>110.5853140933846</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>13.4</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2187,32 +2142,32 @@
       <c r="H28" s="4">
         <v>0.46</v>
       </c>
-      <c r="I28" s="4">
-        <v>13.5</v>
+      <c r="I28" s="7">
+        <v>3.62</v>
       </c>
       <c r="J28" s="7">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="K28" s="7">
+        <v>52.177458980026401</v>
+      </c>
+      <c r="L28" s="7">
+        <v>1552.1381912486199</v>
+      </c>
+      <c r="M28" s="7">
         <v>3.62</v>
       </c>
-      <c r="K28" s="7">
-        <v>138.19999999999999</v>
-      </c>
-      <c r="L28" s="7">
-        <v>52.177458980026401</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1552.1381912486199</v>
-      </c>
       <c r="N28" s="7">
-        <v>3.62</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="O28" s="7">
-        <v>32.700000000000003</v>
+        <v>12.345896589340548</v>
       </c>
       <c r="P28" s="7">
-        <v>12.345896589340548</v>
-      </c>
-      <c r="Q28" s="7">
         <v>367.25701051975307</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2240,37 +2195,37 @@
       <c r="H29" s="4">
         <v>0.49</v>
       </c>
-      <c r="I29" s="4">
-        <v>12.4</v>
+      <c r="I29" s="7">
+        <v>3.68</v>
       </c>
       <c r="J29" s="7">
+        <v>122.8</v>
+      </c>
+      <c r="K29" s="7">
+        <v>48.053473728854982</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1310.2126186750424</v>
+      </c>
+      <c r="M29" s="7">
         <v>3.68</v>
       </c>
-      <c r="K29" s="7">
-        <v>122.8</v>
-      </c>
-      <c r="L29" s="7">
-        <v>48.053473728854982</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1310.2126186750424</v>
-      </c>
       <c r="N29" s="7">
-        <v>3.68</v>
+        <v>35.1</v>
       </c>
       <c r="O29" s="7">
-        <v>35.1</v>
+        <v>13.735154135853501</v>
       </c>
       <c r="P29" s="7">
-        <v>13.735154135853501</v>
-      </c>
-      <c r="Q29" s="7">
         <v>374.49888367666114</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>13.7</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>37</v>
@@ -2293,37 +2248,37 @@
       <c r="H30" s="4">
         <v>0.45</v>
       </c>
-      <c r="I30" s="4">
-        <v>19.399999999999999</v>
+      <c r="I30" s="5">
+        <v>2.99</v>
       </c>
       <c r="J30" s="5">
+        <v>225.9</v>
+      </c>
+      <c r="K30" s="5">
+        <v>98.167450764399405</v>
+      </c>
+      <c r="L30" s="5">
+        <v>2143.4187080047568</v>
+      </c>
+      <c r="M30" s="5">
         <v>2.99</v>
       </c>
-      <c r="K30" s="5">
-        <v>225.9</v>
-      </c>
-      <c r="L30" s="5">
-        <v>98.167450764399405</v>
-      </c>
-      <c r="M30" s="5">
-        <v>2143.4187080047568</v>
-      </c>
       <c r="N30" s="5">
-        <v>2.99</v>
+        <v>46.1</v>
       </c>
       <c r="O30" s="5">
-        <v>46.1</v>
+        <v>20.033286765112052</v>
       </c>
       <c r="P30" s="5">
-        <v>20.033286765112052</v>
-      </c>
-      <c r="Q30" s="5">
         <v>437.41302540513198</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>16.5</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>37</v>
@@ -2346,37 +2301,37 @@
       <c r="H31" s="4">
         <v>0.47</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="J31" s="5">
+        <v>111.9</v>
+      </c>
+      <c r="K31" s="5">
+        <v>41.013578753226184</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1310.1626658482048</v>
+      </c>
+      <c r="M31" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="N31" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="O31" s="5">
+        <v>8.0267861903096804</v>
+      </c>
+      <c r="P31" s="5">
+        <v>256.41253245822776</v>
+      </c>
+      <c r="Q31" s="4">
         <v>13.2</v>
-      </c>
-      <c r="J31" s="5">
-        <v>3.86</v>
-      </c>
-      <c r="K31" s="5">
-        <v>111.9</v>
-      </c>
-      <c r="L31" s="5">
-        <v>41.013578753226184</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1310.1626658482048</v>
-      </c>
-      <c r="N31" s="5">
-        <v>3.86</v>
-      </c>
-      <c r="O31" s="5">
-        <v>21.9</v>
-      </c>
-      <c r="P31" s="5">
-        <v>8.0267861903096804</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>256.41253245822776</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>37</v>
@@ -2399,37 +2354,37 @@
       <c r="H32" s="4">
         <v>0.54</v>
       </c>
-      <c r="I32" s="4">
-        <v>13.5</v>
+      <c r="I32" s="5">
+        <v>4.26</v>
       </c>
       <c r="J32" s="5">
+        <v>147</v>
+      </c>
+      <c r="K32" s="5">
+        <v>56.614613009816004</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1621.7723779852033</v>
+      </c>
+      <c r="M32" s="5">
         <v>4.26</v>
       </c>
-      <c r="K32" s="5">
-        <v>147</v>
-      </c>
-      <c r="L32" s="5">
-        <v>56.614613009816004</v>
-      </c>
-      <c r="M32" s="5">
-        <v>1621.7723779852033</v>
-      </c>
       <c r="N32" s="5">
-        <v>4.26</v>
+        <v>21.9</v>
       </c>
       <c r="O32" s="5">
-        <v>21.9</v>
+        <v>8.4344219381970778</v>
       </c>
       <c r="P32" s="5">
-        <v>8.4344219381970778</v>
-      </c>
-      <c r="Q32" s="5">
         <v>241.61098692432617</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>11.5</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>37</v>
@@ -2452,37 +2407,37 @@
       <c r="H33" s="4">
         <v>0.4</v>
       </c>
-      <c r="I33" s="4">
-        <v>7.2</v>
+      <c r="I33" s="5">
+        <v>2.8</v>
       </c>
       <c r="J33" s="5">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="K33" s="5">
+        <v>67.239864166164594</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1614.4459977556485</v>
+      </c>
+      <c r="M33" s="5">
         <v>2.8</v>
       </c>
-      <c r="K33" s="5">
-        <v>162.30000000000001</v>
-      </c>
-      <c r="L33" s="5">
-        <v>67.239864166164594</v>
-      </c>
-      <c r="M33" s="5">
-        <v>1614.4459977556485</v>
-      </c>
       <c r="N33" s="5">
-        <v>2.8</v>
+        <v>15.4</v>
       </c>
       <c r="O33" s="5">
-        <v>15.4</v>
+        <v>6.3801226627167882</v>
       </c>
       <c r="P33" s="5">
-        <v>6.3801226627167882</v>
-      </c>
-      <c r="Q33" s="5">
         <v>153.1883448270917</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>7.5</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>37</v>
@@ -2505,37 +2460,37 @@
       <c r="H34" s="4">
         <v>0.53</v>
       </c>
-      <c r="I34" s="4">
-        <v>13.9</v>
+      <c r="I34" s="5">
+        <v>4.55</v>
       </c>
       <c r="J34" s="5">
+        <v>92.1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>34.161363085122645</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1110.0454215770028</v>
+      </c>
+      <c r="M34" s="5">
         <v>4.55</v>
       </c>
-      <c r="K34" s="5">
-        <v>92.1</v>
-      </c>
-      <c r="L34" s="5">
-        <v>34.161363085122645</v>
-      </c>
-      <c r="M34" s="5">
-        <v>1110.0454215770028</v>
-      </c>
       <c r="N34" s="5">
-        <v>4.55</v>
+        <v>43.9</v>
       </c>
       <c r="O34" s="5">
-        <v>43.9</v>
+        <v>16.283212154580717</v>
       </c>
       <c r="P34" s="5">
-        <v>16.283212154580717</v>
-      </c>
-      <c r="Q34" s="5">
         <v>529.10959834126413</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
@@ -2558,37 +2513,37 @@
       <c r="H35" s="4">
         <v>0.49</v>
       </c>
-      <c r="I35" s="4">
-        <v>16.2</v>
+      <c r="I35" s="5">
+        <v>3.08</v>
       </c>
       <c r="J35" s="5">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="K35" s="5">
+        <v>61.650961721179989</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1185.8899371126181</v>
+      </c>
+      <c r="M35" s="5">
         <v>3.08</v>
       </c>
-      <c r="K35" s="5">
-        <v>132.80000000000001</v>
-      </c>
-      <c r="L35" s="5">
-        <v>61.650961721179989</v>
-      </c>
-      <c r="M35" s="5">
-        <v>1185.8899371126181</v>
-      </c>
       <c r="N35" s="5">
-        <v>3.08</v>
+        <v>26.6</v>
       </c>
       <c r="O35" s="5">
-        <v>26.6</v>
+        <v>12.348761911019485</v>
       </c>
       <c r="P35" s="5">
-        <v>12.348761911019485</v>
-      </c>
-      <c r="Q35" s="5">
         <v>237.53518318671419</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>37</v>
@@ -2611,37 +2566,37 @@
       <c r="H36" s="4">
         <v>0.37</v>
       </c>
-      <c r="I36" s="4">
-        <v>13.5</v>
+      <c r="I36" s="5">
+        <v>3.45</v>
       </c>
       <c r="J36" s="5">
+        <v>125</v>
+      </c>
+      <c r="K36" s="5">
+        <v>43.158603316448151</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1639.423264960252</v>
+      </c>
+      <c r="M36" s="5">
         <v>3.45</v>
       </c>
-      <c r="K36" s="5">
-        <v>125</v>
-      </c>
-      <c r="L36" s="5">
-        <v>43.158603316448151</v>
-      </c>
-      <c r="M36" s="5">
-        <v>1639.423264960252</v>
-      </c>
       <c r="N36" s="5">
-        <v>3.45</v>
+        <v>32.9</v>
       </c>
       <c r="O36" s="5">
-        <v>32.9</v>
+        <v>11.359344392889152</v>
       </c>
       <c r="P36" s="5">
-        <v>11.359344392889152</v>
-      </c>
-      <c r="Q36" s="5">
         <v>431.49620333753836</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>37</v>
@@ -2664,32 +2619,32 @@
       <c r="H37" s="4">
         <v>0.49</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="5">
+        <v>4</v>
+      </c>
+      <c r="J37" s="5">
+        <v>171.1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>62.281831053573242</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1984.2920536689185</v>
+      </c>
+      <c r="M37" s="5">
+        <v>4</v>
+      </c>
+      <c r="N37" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="O37" s="5">
+        <v>12.776693570896674</v>
+      </c>
+      <c r="P37" s="5">
+        <v>407.06400399637084</v>
+      </c>
+      <c r="Q37" s="4">
         <v>11.4</v>
-      </c>
-      <c r="J37" s="5">
-        <v>4</v>
-      </c>
-      <c r="K37" s="5">
-        <v>171.1</v>
-      </c>
-      <c r="L37" s="5">
-        <v>62.281831053573242</v>
-      </c>
-      <c r="M37" s="5">
-        <v>1984.2920536689185</v>
-      </c>
-      <c r="N37" s="5">
-        <v>4</v>
-      </c>
-      <c r="O37" s="5">
-        <v>35.1</v>
-      </c>
-      <c r="P37" s="5">
-        <v>12.776693570896674</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>407.06400399637084</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2717,29 +2672,32 @@
       <c r="H38" s="6">
         <v>0.51</v>
       </c>
+      <c r="I38" s="7">
+        <v>4.22</v>
+      </c>
       <c r="J38" s="7">
+        <v>160.9</v>
+      </c>
+      <c r="K38" s="7">
+        <v>62.014307613903547</v>
+      </c>
+      <c r="L38" s="7">
+        <v>1881.7043342800039</v>
+      </c>
+      <c r="M38" s="7">
         <v>4.22</v>
       </c>
-      <c r="K38" s="7">
-        <v>160.9</v>
-      </c>
-      <c r="L38" s="7">
-        <v>62.014307613903547</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1881.7043342800039</v>
-      </c>
       <c r="N38" s="7">
-        <v>4.22</v>
+        <v>58.5</v>
       </c>
       <c r="O38" s="7">
-        <v>58.5</v>
+        <v>22.547153482991657</v>
       </c>
       <c r="P38" s="7">
-        <v>22.547153482991657</v>
-      </c>
-      <c r="Q38" s="7">
         <v>684.14980457041781</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>19.7</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2767,32 +2725,32 @@
       <c r="H39" s="8">
         <v>0.42</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="J39" s="7">
+        <v>199.2</v>
+      </c>
+      <c r="K39" s="7">
+        <v>83.000271386991997</v>
+      </c>
+      <c r="L39" s="7">
+        <v>2164.5901922366129</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="N39" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="O39" s="7">
+        <v>12.666708083155404</v>
+      </c>
+      <c r="P39" s="7">
+        <v>330.33906548189276</v>
+      </c>
+      <c r="Q39" s="4">
         <v>20.3</v>
-      </c>
-      <c r="J39" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="K39" s="7">
-        <v>199.2</v>
-      </c>
-      <c r="L39" s="7">
-        <v>83.000271386991997</v>
-      </c>
-      <c r="M39" s="7">
-        <v>2164.5901922366129</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="O39" s="7">
-        <v>30.4</v>
-      </c>
-      <c r="P39" s="7">
-        <v>12.666708083155404</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>330.33906548189276</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2820,32 +2778,32 @@
       <c r="H40" s="4">
         <v>0.5</v>
       </c>
-      <c r="I40" s="4">
-        <v>25.9</v>
+      <c r="I40" s="7">
+        <v>3.92</v>
       </c>
       <c r="J40" s="7">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="K40" s="7">
+        <v>64.64071645342473</v>
+      </c>
+      <c r="L40" s="7">
+        <v>1736.7381507357793</v>
+      </c>
+      <c r="M40" s="7">
         <v>3.92</v>
       </c>
-      <c r="K40" s="7">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="L40" s="7">
-        <v>64.64071645342473</v>
-      </c>
-      <c r="M40" s="7">
-        <v>1736.7381507357793</v>
-      </c>
       <c r="N40" s="7">
-        <v>3.92</v>
+        <v>59.8</v>
       </c>
       <c r="O40" s="7">
-        <v>59.8</v>
+        <v>24.731380959147781</v>
       </c>
       <c r="P40" s="7">
-        <v>24.731380959147781</v>
-      </c>
-      <c r="Q40" s="7">
         <v>664.47179407549311</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>29.1</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2873,43 +2831,43 @@
       <c r="H41" s="4">
         <v>0.43</v>
       </c>
-      <c r="I41" s="4">
-        <v>23.5</v>
+      <c r="I41" s="7">
+        <v>3.59</v>
       </c>
       <c r="J41" s="7">
+        <v>199.2</v>
+      </c>
+      <c r="K41" s="7">
+        <v>74.515767538879103</v>
+      </c>
+      <c r="L41" s="7">
+        <v>2374.1856827682977</v>
+      </c>
+      <c r="M41" s="7">
         <v>3.59</v>
       </c>
-      <c r="K41" s="7">
-        <v>199.2</v>
-      </c>
-      <c r="L41" s="7">
-        <v>74.515767538879103</v>
-      </c>
-      <c r="M41" s="7">
-        <v>2374.1856827682977</v>
-      </c>
       <c r="N41" s="7">
-        <v>3.59</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O41" s="7">
-        <v>33.200000000000003</v>
+        <v>12.419294589813184</v>
       </c>
       <c r="P41" s="7">
-        <v>12.419294589813184</v>
-      </c>
-      <c r="Q41" s="7">
         <v>395.69761379471629</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>23.7</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="4">
         <v>120</v>
@@ -2926,32 +2884,32 @@
       <c r="H42" s="4">
         <v>0.5</v>
       </c>
-      <c r="I42" s="4">
-        <v>24.5</v>
+      <c r="I42" s="7">
+        <v>3.48</v>
       </c>
       <c r="J42" s="7">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="K42" s="7">
+        <v>61.781527038790422</v>
+      </c>
+      <c r="L42" s="7">
+        <v>1428.3581108875562</v>
+      </c>
+      <c r="M42" s="7">
         <v>3.48</v>
       </c>
-      <c r="K42" s="7">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="L42" s="7">
-        <v>61.781527038790422</v>
-      </c>
-      <c r="M42" s="7">
-        <v>1428.3581108875562</v>
-      </c>
       <c r="N42" s="7">
-        <v>3.48</v>
+        <v>61.4</v>
       </c>
       <c r="O42" s="7">
-        <v>61.4</v>
+        <v>26.197415470868314</v>
       </c>
       <c r="P42" s="7">
-        <v>26.197415470868314</v>
-      </c>
-      <c r="Q42" s="7">
         <v>605.6711879039774</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>25.3</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2979,37 +2937,37 @@
       <c r="H43" s="4">
         <v>0.42</v>
       </c>
-      <c r="I43" s="4">
-        <v>24</v>
+      <c r="I43" s="5">
+        <v>3.92</v>
       </c>
       <c r="J43" s="5">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="K43" s="5">
+        <v>48.826339159764728</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1927.4849814203333</v>
+      </c>
+      <c r="M43" s="5">
         <v>3.92</v>
       </c>
-      <c r="K43" s="5">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="L43" s="5">
-        <v>48.826339159764728</v>
-      </c>
-      <c r="M43" s="5">
-        <v>1927.4849814203333</v>
-      </c>
       <c r="N43" s="5">
-        <v>3.92</v>
+        <v>59.8</v>
       </c>
       <c r="O43" s="5">
-        <v>59.8</v>
+        <v>20.164468796643167</v>
       </c>
       <c r="P43" s="5">
-        <v>20.164468796643167</v>
-      </c>
-      <c r="Q43" s="5">
         <v>796.0193500617122</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>38</v>
@@ -3032,37 +2990,37 @@
       <c r="H44" s="4">
         <v>0.43</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="5">
+        <v>3.59</v>
+      </c>
+      <c r="J44" s="5">
+        <v>199.2</v>
+      </c>
+      <c r="K44" s="5">
+        <v>51.847946675872706</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1568.4881317886943</v>
+      </c>
+      <c r="M44" s="5">
+        <v>3.59</v>
+      </c>
+      <c r="N44" s="5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O44" s="5">
+        <v>13.080181076283997</v>
+      </c>
+      <c r="P44" s="5">
+        <v>395.69761379471629</v>
+      </c>
+      <c r="Q44" s="4">
         <v>28.3</v>
-      </c>
-      <c r="J44" s="5">
-        <v>3.59</v>
-      </c>
-      <c r="K44" s="5">
-        <v>199.2</v>
-      </c>
-      <c r="L44" s="5">
-        <v>51.847946675872706</v>
-      </c>
-      <c r="M44" s="5">
-        <v>1568.4881317886943</v>
-      </c>
-      <c r="N44" s="5">
-        <v>3.59</v>
-      </c>
-      <c r="O44" s="5">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="P44" s="5">
-        <v>13.080181076283997</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>395.69761379471629</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>38</v>
@@ -3085,32 +3043,32 @@
       <c r="H45" s="4">
         <v>0.45</v>
       </c>
-      <c r="I45" s="4">
-        <v>15.2</v>
+      <c r="I45" s="5">
+        <v>3.14</v>
       </c>
       <c r="J45" s="5">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="K45" s="5">
+        <v>55.351948167301998</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1311.3092811904485</v>
+      </c>
+      <c r="M45" s="5">
         <v>3.14</v>
       </c>
-      <c r="K45" s="5">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="L45" s="5">
-        <v>55.351948167301998</v>
-      </c>
-      <c r="M45" s="5">
-        <v>1311.3092811904485</v>
-      </c>
       <c r="N45" s="5">
-        <v>3.14</v>
+        <v>19.7</v>
       </c>
       <c r="O45" s="5">
-        <v>19.7</v>
+        <v>8.2859679247404969</v>
       </c>
       <c r="P45" s="5">
-        <v>8.2859679247404969</v>
-      </c>
-      <c r="Q45" s="5">
         <v>196.29781792896532</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3138,32 +3096,32 @@
       <c r="H46" s="4">
         <v>0.46</v>
       </c>
-      <c r="I46" s="4">
-        <v>19.600000000000001</v>
+      <c r="I46" s="7">
+        <v>3.62</v>
       </c>
       <c r="J46" s="7">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="K46" s="7">
+        <v>51.770397816569712</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1478.012923070321</v>
+      </c>
+      <c r="M46" s="7">
         <v>3.62</v>
       </c>
-      <c r="K46" s="7">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="L46" s="7">
-        <v>51.770397816569712</v>
-      </c>
-      <c r="M46" s="7">
-        <v>1478.012923070321</v>
-      </c>
       <c r="N46" s="7">
-        <v>3.62</v>
+        <v>54.8</v>
       </c>
       <c r="O46" s="7">
-        <v>54.8</v>
+        <v>21.557886020881615</v>
       </c>
       <c r="P46" s="7">
-        <v>21.557886020881615</v>
-      </c>
-      <c r="Q46" s="7">
         <v>615.46434790466265</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3191,37 +3149,37 @@
       <c r="H47" s="4">
         <v>0.49</v>
       </c>
-      <c r="I47" s="4">
-        <v>19.7</v>
+      <c r="I47" s="7">
+        <v>3.73</v>
       </c>
       <c r="J47" s="7">
+        <v>131.6</v>
+      </c>
+      <c r="K47" s="7">
+        <v>50.879476923456103</v>
+      </c>
+      <c r="L47" s="7">
+        <v>1423.1815777328384</v>
+      </c>
+      <c r="M47" s="7">
         <v>3.73</v>
       </c>
-      <c r="K47" s="7">
-        <v>131.6</v>
-      </c>
-      <c r="L47" s="7">
-        <v>50.879476923456103</v>
-      </c>
-      <c r="M47" s="7">
-        <v>1423.1815777328384</v>
-      </c>
       <c r="N47" s="7">
-        <v>3.73</v>
+        <v>43.9</v>
       </c>
       <c r="O47" s="7">
-        <v>43.9</v>
+        <v>16.97271304665443</v>
       </c>
       <c r="P47" s="7">
-        <v>16.97271304665443</v>
-      </c>
-      <c r="Q47" s="7">
         <v>474.75434090024027</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>16.2</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>38</v>
@@ -3244,37 +3202,37 @@
       <c r="H48" s="4">
         <v>0.45</v>
       </c>
-      <c r="I48" s="4">
-        <v>21</v>
+      <c r="I48" s="5">
+        <v>3.18</v>
       </c>
       <c r="J48" s="5">
+        <v>237.5</v>
+      </c>
+      <c r="K48" s="5">
+        <v>55.754773400838616</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1328.0138580208998</v>
+      </c>
+      <c r="M48" s="5">
         <v>3.18</v>
       </c>
-      <c r="K48" s="5">
-        <v>237.5</v>
-      </c>
-      <c r="L48" s="5">
-        <v>55.754773400838616</v>
-      </c>
-      <c r="M48" s="5">
-        <v>1328.0138580208998</v>
-      </c>
       <c r="N48" s="5">
-        <v>3.18</v>
+        <v>46.1</v>
       </c>
       <c r="O48" s="5">
-        <v>46.1</v>
+        <v>19.531117429929029</v>
       </c>
       <c r="P48" s="5">
-        <v>19.531117429929029</v>
-      </c>
-      <c r="Q48" s="5">
         <v>465.20850193589291</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>21.1</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>38</v>
@@ -3297,37 +3255,37 @@
       <c r="H49" s="4">
         <v>0.47</v>
       </c>
-      <c r="I49" s="4">
-        <v>16.899999999999999</v>
+      <c r="I49" s="5">
+        <v>3.86</v>
       </c>
       <c r="J49" s="5">
+        <v>239.1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>49.153922314743575</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1540.8168617124552</v>
+      </c>
+      <c r="M49" s="5">
         <v>3.86</v>
       </c>
-      <c r="K49" s="5">
-        <v>239.1</v>
-      </c>
-      <c r="L49" s="5">
-        <v>49.153922314743575</v>
-      </c>
-      <c r="M49" s="5">
-        <v>1540.8168617124552</v>
-      </c>
       <c r="N49" s="5">
-        <v>3.86</v>
+        <v>28.5</v>
       </c>
       <c r="O49" s="5">
-        <v>28.5</v>
+        <v>10.645036367554649</v>
       </c>
       <c r="P49" s="5">
-        <v>10.645036367554649</v>
-      </c>
-      <c r="Q49" s="5">
         <v>333.68754224015936</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>16.7</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>38</v>
@@ -3350,37 +3308,37 @@
       <c r="H50" s="4">
         <v>0.54</v>
       </c>
-      <c r="I50" s="4">
-        <v>26.4</v>
+      <c r="I50" s="5">
+        <v>4.0999999999999996</v>
       </c>
       <c r="J50" s="5">
+        <v>204</v>
+      </c>
+      <c r="K50" s="5">
+        <v>53.110786798801605</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1397.341995250385</v>
+      </c>
+      <c r="M50" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K50" s="5">
-        <v>204</v>
-      </c>
-      <c r="L50" s="5">
-        <v>53.110786798801605</v>
-      </c>
-      <c r="M50" s="5">
-        <v>1397.341995250385</v>
-      </c>
       <c r="N50" s="5">
-        <v>4.0999999999999996</v>
+        <v>32.9</v>
       </c>
       <c r="O50" s="5">
-        <v>32.9</v>
+        <v>13.277696699700401</v>
       </c>
       <c r="P50" s="5">
-        <v>13.277696699700401</v>
-      </c>
-      <c r="Q50" s="5">
         <v>349.33549881259626</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>23.2</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>38</v>
@@ -3403,37 +3361,37 @@
       <c r="H51" s="4">
         <v>0.4</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="J51" s="5">
+        <v>195.2</v>
+      </c>
+      <c r="K51" s="5">
+        <v>52.078902194013843</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1393.2181543170429</v>
+      </c>
+      <c r="M51" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="N51" s="5">
+        <v>24.1</v>
+      </c>
+      <c r="O51" s="5">
+        <v>9.53724576653293</v>
+      </c>
+      <c r="P51" s="5">
+        <v>255.14101458237647</v>
+      </c>
+      <c r="Q51" s="4">
         <v>9.9</v>
-      </c>
-      <c r="J51" s="5">
-        <v>2.98</v>
-      </c>
-      <c r="K51" s="5">
-        <v>195.2</v>
-      </c>
-      <c r="L51" s="5">
-        <v>52.078902194013843</v>
-      </c>
-      <c r="M51" s="5">
-        <v>1393.2181543170429</v>
-      </c>
-      <c r="N51" s="5">
-        <v>2.98</v>
-      </c>
-      <c r="O51" s="5">
-        <v>24.1</v>
-      </c>
-      <c r="P51" s="5">
-        <v>9.53724576653293</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>255.14101458237647</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>38</v>
@@ -3456,37 +3414,37 @@
       <c r="H52" s="4">
         <v>0.53</v>
       </c>
-      <c r="I52" s="4">
-        <v>22.7</v>
+      <c r="I52" s="5">
+        <v>5.12</v>
       </c>
       <c r="J52" s="5">
+        <v>195</v>
+      </c>
+      <c r="K52" s="5">
+        <v>44.968802175453888</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1784.8247239508223</v>
+      </c>
+      <c r="M52" s="5">
         <v>5.12</v>
       </c>
-      <c r="K52" s="5">
-        <v>195</v>
-      </c>
-      <c r="L52" s="5">
-        <v>44.968802175453888</v>
-      </c>
-      <c r="M52" s="5">
-        <v>1784.8247239508223</v>
-      </c>
       <c r="N52" s="5">
-        <v>5.12</v>
+        <v>43.9</v>
       </c>
       <c r="O52" s="5">
-        <v>43.9</v>
+        <v>15.000990999258555</v>
       </c>
       <c r="P52" s="5">
-        <v>15.000990999258555</v>
-      </c>
-      <c r="Q52" s="5">
         <v>595.39365791368618</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>13.9</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>38</v>
@@ -3509,37 +3467,37 @@
       <c r="H53" s="4">
         <v>0.49</v>
       </c>
-      <c r="I53" s="4">
-        <v>15</v>
+      <c r="I53" s="5">
+        <v>3.47</v>
       </c>
       <c r="J53" s="5">
+        <v>151.1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>55.317289333849736</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1323.9785723144637</v>
+      </c>
+      <c r="M53" s="5">
         <v>3.47</v>
       </c>
-      <c r="K53" s="5">
-        <v>151.1</v>
-      </c>
-      <c r="L53" s="5">
-        <v>55.317289333849736</v>
-      </c>
-      <c r="M53" s="5">
-        <v>1323.9785723144637</v>
-      </c>
       <c r="N53" s="5">
-        <v>3.47</v>
+        <v>24.9</v>
       </c>
       <c r="O53" s="5">
-        <v>24.9</v>
+        <v>10.466569182468529</v>
       </c>
       <c r="P53" s="5">
-        <v>10.466569182468529</v>
-      </c>
-      <c r="Q53" s="5">
         <v>250.50962348503151</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>28.4</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>38</v>
@@ -3562,37 +3520,37 @@
       <c r="H54" s="4">
         <v>0.37</v>
       </c>
-      <c r="I54" s="4">
-        <v>17.600000000000001</v>
+      <c r="I54" s="5">
+        <v>3.82</v>
       </c>
       <c r="J54" s="5">
+        <v>177</v>
+      </c>
+      <c r="K54" s="5">
+        <v>43.727528445142241</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1911.0904310137928</v>
+      </c>
+      <c r="M54" s="5">
         <v>3.82</v>
       </c>
-      <c r="K54" s="5">
-        <v>177</v>
-      </c>
-      <c r="L54" s="5">
-        <v>43.727528445142241</v>
-      </c>
-      <c r="M54" s="5">
-        <v>1911.0904310137928</v>
-      </c>
       <c r="N54" s="5">
-        <v>3.82</v>
+        <v>35.1</v>
       </c>
       <c r="O54" s="5">
-        <v>35.1</v>
+        <v>11.662889425718031</v>
       </c>
       <c r="P54" s="5">
-        <v>11.662889425718031</v>
-      </c>
-      <c r="Q54" s="5">
         <v>509.72092802875483</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>14.3</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>38</v>
@@ -3615,32 +3573,32 @@
       <c r="H55" s="4">
         <v>0.49</v>
       </c>
-      <c r="I55" s="4">
-        <v>21.2</v>
+      <c r="I55" s="5">
+        <v>3.95</v>
       </c>
       <c r="J55" s="5">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="K55" s="5">
+        <v>49.523176956562324</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1507.1225823176171</v>
+      </c>
+      <c r="M55" s="5">
         <v>3.95</v>
       </c>
-      <c r="K55" s="5">
-        <v>129.19999999999999</v>
-      </c>
-      <c r="L55" s="5">
-        <v>49.523176956562324</v>
-      </c>
-      <c r="M55" s="5">
-        <v>1507.1225823176171</v>
-      </c>
       <c r="N55" s="5">
-        <v>3.95</v>
+        <v>43.9</v>
       </c>
       <c r="O55" s="5">
-        <v>43.9</v>
+        <v>16.520269516664783</v>
       </c>
       <c r="P55" s="5">
-        <v>16.520269516664783</v>
-      </c>
-      <c r="Q55" s="5">
         <v>502.75593741446357</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3668,29 +3626,32 @@
       <c r="H56" s="6">
         <v>0.51</v>
       </c>
+      <c r="I56" s="7">
+        <v>4.76</v>
+      </c>
       <c r="J56" s="7">
+        <v>209.7</v>
+      </c>
+      <c r="K56" s="7">
+        <v>76.215785221021051</v>
+      </c>
+      <c r="L56" s="7">
+        <v>2766.229913426756</v>
+      </c>
+      <c r="M56" s="7">
         <v>4.76</v>
       </c>
-      <c r="K56" s="7">
-        <v>209.7</v>
-      </c>
-      <c r="L56" s="7">
-        <v>76.215785221021051</v>
-      </c>
-      <c r="M56" s="7">
-        <v>2766.229913426756</v>
-      </c>
       <c r="N56" s="7">
-        <v>4.76</v>
+        <v>92.1</v>
       </c>
       <c r="O56" s="7">
-        <v>92.1</v>
+        <v>33.473885640705952</v>
       </c>
       <c r="P56" s="7">
-        <v>33.473885640705952</v>
-      </c>
-      <c r="Q56" s="7">
         <v>1214.9250120486608</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>21.3</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3718,32 +3679,32 @@
       <c r="H57" s="8">
         <v>0.42</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="7">
+        <v>3.43</v>
+      </c>
+      <c r="J57" s="7">
+        <v>221.3</v>
+      </c>
+      <c r="K57" s="7">
+        <v>89.139217940075412</v>
+      </c>
+      <c r="L57" s="7">
+        <v>2577.5785434377062</v>
+      </c>
+      <c r="M57" s="7">
+        <v>3.43</v>
+      </c>
+      <c r="N57" s="7">
+        <v>36</v>
+      </c>
+      <c r="O57" s="7">
+        <v>14.500731341358856</v>
+      </c>
+      <c r="P57" s="7">
+        <v>419.30785162113602</v>
+      </c>
+      <c r="Q57" s="4">
         <v>22.8</v>
-      </c>
-      <c r="J57" s="7">
-        <v>3.43</v>
-      </c>
-      <c r="K57" s="7">
-        <v>221.3</v>
-      </c>
-      <c r="L57" s="7">
-        <v>89.139217940075412</v>
-      </c>
-      <c r="M57" s="7">
-        <v>2577.5785434377062</v>
-      </c>
-      <c r="N57" s="7">
-        <v>3.43</v>
-      </c>
-      <c r="O57" s="7">
-        <v>36</v>
-      </c>
-      <c r="P57" s="7">
-        <v>14.500731341358856</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>419.30785162113602</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -3771,32 +3732,32 @@
       <c r="H58" s="4">
         <v>0.5</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="7">
+        <v>4.07</v>
+      </c>
+      <c r="J58" s="7">
+        <v>205.8</v>
+      </c>
+      <c r="K58" s="7">
+        <v>83.573530553592946</v>
+      </c>
+      <c r="L58" s="7">
+        <v>2374.2643912889807</v>
+      </c>
+      <c r="M58" s="7">
+        <v>4.07</v>
+      </c>
+      <c r="N58" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="O58" s="7">
+        <v>25.624342944274613</v>
+      </c>
+      <c r="P58" s="7">
+        <v>727.9693055895757</v>
+      </c>
+      <c r="Q58" s="4">
         <v>30.7</v>
-      </c>
-      <c r="J58" s="7">
-        <v>4.07</v>
-      </c>
-      <c r="K58" s="7">
-        <v>205.8</v>
-      </c>
-      <c r="L58" s="7">
-        <v>83.573530553592946</v>
-      </c>
-      <c r="M58" s="7">
-        <v>2374.2643912889807</v>
-      </c>
-      <c r="N58" s="7">
-        <v>4.07</v>
-      </c>
-      <c r="O58" s="7">
-        <v>63.1</v>
-      </c>
-      <c r="P58" s="7">
-        <v>25.624342944274613</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>727.9693055895757</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3824,43 +3785,43 @@
       <c r="H59" s="4">
         <v>0.43</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="7">
+        <v>4.04</v>
+      </c>
+      <c r="J59" s="7">
+        <v>224.1</v>
+      </c>
+      <c r="K59" s="7">
+        <v>80.726090209831426</v>
+      </c>
+      <c r="L59" s="7">
+        <v>3005.7587543682212</v>
+      </c>
+      <c r="M59" s="7">
+        <v>4.04</v>
+      </c>
+      <c r="N59" s="7">
+        <v>41.5</v>
+      </c>
+      <c r="O59" s="7">
+        <v>14.949275964783601</v>
+      </c>
+      <c r="P59" s="7">
+        <v>556.6219915496705</v>
+      </c>
+      <c r="Q59" s="4">
         <v>34.200000000000003</v>
-      </c>
-      <c r="J59" s="7">
-        <v>4.04</v>
-      </c>
-      <c r="K59" s="7">
-        <v>224.1</v>
-      </c>
-      <c r="L59" s="7">
-        <v>80.726090209831426</v>
-      </c>
-      <c r="M59" s="7">
-        <v>3005.7587543682212</v>
-      </c>
-      <c r="N59" s="7">
-        <v>4.04</v>
-      </c>
-      <c r="O59" s="7">
-        <v>41.5</v>
-      </c>
-      <c r="P59" s="7">
-        <v>14.949275964783601</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>556.6219915496705</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" s="4">
         <v>150</v>
@@ -3877,32 +3838,32 @@
       <c r="H60" s="4">
         <v>0.5</v>
       </c>
-      <c r="I60" s="4">
-        <v>39.6</v>
+      <c r="I60" s="7">
+        <v>3.6</v>
       </c>
       <c r="J60" s="7">
+        <v>151.4</v>
+      </c>
+      <c r="K60" s="7">
+        <v>65.406516031071888</v>
+      </c>
+      <c r="L60" s="7">
+        <v>1544.9615497359687</v>
+      </c>
+      <c r="M60" s="7">
         <v>3.6</v>
       </c>
-      <c r="K60" s="7">
-        <v>151.4</v>
-      </c>
-      <c r="L60" s="7">
-        <v>65.406516031071888</v>
-      </c>
-      <c r="M60" s="7">
-        <v>1544.9615497359687</v>
-      </c>
       <c r="N60" s="7">
-        <v>3.6</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="O60" s="7">
-        <v>37.299999999999997</v>
+        <v>16.114022773837391</v>
       </c>
       <c r="P60" s="7">
-        <v>16.114022773837391</v>
-      </c>
-      <c r="Q60" s="7">
         <v>380.62791152676107</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>36.1</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3930,37 +3891,37 @@
       <c r="H61" s="4">
         <v>0.42</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>62</v>
+      <c r="I61" s="5">
+        <v>4.07</v>
       </c>
       <c r="J61" s="5">
+        <v>205.8</v>
+      </c>
+      <c r="K61" s="5">
+        <v>74.56594567636661</v>
+      </c>
+      <c r="L61" s="5">
+        <v>2844.3049268300406</v>
+      </c>
+      <c r="M61" s="5">
         <v>4.07</v>
       </c>
-      <c r="K61" s="5">
-        <v>205.8</v>
-      </c>
-      <c r="L61" s="5">
-        <v>74.56594567636661</v>
-      </c>
-      <c r="M61" s="5">
-        <v>2844.3049268300406</v>
-      </c>
       <c r="N61" s="5">
-        <v>4.07</v>
+        <v>63.1</v>
       </c>
       <c r="O61" s="5">
-        <v>63.1</v>
+        <v>22.862542138866537</v>
       </c>
       <c r="P61" s="5">
-        <v>22.862542138866537</v>
-      </c>
-      <c r="Q61" s="5">
         <v>872.0876622107653</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>27.1</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>39</v>
@@ -3983,37 +3944,37 @@
       <c r="H62" s="4">
         <v>0.43</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="5">
+        <v>4.04</v>
+      </c>
+      <c r="J62" s="5">
+        <v>224.1</v>
+      </c>
+      <c r="K62" s="5">
+        <v>84.529810462656485</v>
+      </c>
+      <c r="L62" s="5">
+        <v>3005.7587543682212</v>
+      </c>
+      <c r="M62" s="5">
+        <v>4.04</v>
+      </c>
+      <c r="N62" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="O62" s="5">
+        <v>15.65366860419565</v>
+      </c>
+      <c r="P62" s="5">
+        <v>556.6219915496705</v>
+      </c>
+      <c r="Q62" s="4">
         <v>31.7</v>
-      </c>
-      <c r="J62" s="5">
-        <v>4.04</v>
-      </c>
-      <c r="K62" s="5">
-        <v>224.1</v>
-      </c>
-      <c r="L62" s="5">
-        <v>84.529810462656485</v>
-      </c>
-      <c r="M62" s="5">
-        <v>3005.7587543682212</v>
-      </c>
-      <c r="N62" s="5">
-        <v>4.04</v>
-      </c>
-      <c r="O62" s="5">
-        <v>41.5</v>
-      </c>
-      <c r="P62" s="5">
-        <v>15.65366860419565</v>
-      </c>
-      <c r="Q62" s="5">
-        <v>556.6219915496705</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>39</v>
@@ -4036,32 +3997,32 @@
       <c r="H63" s="4">
         <v>0.45</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="J63" s="5">
+        <v>186.5</v>
+      </c>
+      <c r="K63" s="5">
+        <v>78.239319101689077</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1994.473795749044</v>
+      </c>
+      <c r="M63" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="N63" s="5">
+        <v>30.7</v>
+      </c>
+      <c r="O63" s="5">
+        <v>12.879072903066245</v>
+      </c>
+      <c r="P63" s="5">
+        <v>328.312844662175</v>
+      </c>
+      <c r="Q63" s="4">
         <v>19.899999999999999</v>
-      </c>
-      <c r="J63" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K63" s="5">
-        <v>186.5</v>
-      </c>
-      <c r="L63" s="5">
-        <v>78.239319101689077</v>
-      </c>
-      <c r="M63" s="5">
-        <v>1994.473795749044</v>
-      </c>
-      <c r="N63" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="O63" s="5">
-        <v>30.7</v>
-      </c>
-      <c r="P63" s="5">
-        <v>12.879072903066245</v>
-      </c>
-      <c r="Q63" s="5">
-        <v>328.312844662175</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -4089,32 +4050,32 @@
       <c r="H64" s="4">
         <v>0.46</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="7">
+        <v>3.76</v>
+      </c>
+      <c r="J64" s="7">
+        <v>152</v>
+      </c>
+      <c r="K64" s="7">
+        <v>59.370524917480516</v>
+      </c>
+      <c r="L64" s="7">
+        <v>1773.1488895555551</v>
+      </c>
+      <c r="M64" s="9">
+        <v>3.76</v>
+      </c>
+      <c r="N64" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="O64" s="9">
+        <v>6.8476724758241669</v>
+      </c>
+      <c r="P64" s="9">
+        <v>130.4607201949382</v>
+      </c>
+      <c r="Q64" s="4">
         <v>23.7</v>
-      </c>
-      <c r="J64" s="7">
-        <v>3.76</v>
-      </c>
-      <c r="K64" s="7">
-        <v>152</v>
-      </c>
-      <c r="L64" s="7">
-        <v>59.370524917480516</v>
-      </c>
-      <c r="M64" s="7">
-        <v>1773.1488895555551</v>
-      </c>
-      <c r="N64" s="9">
-        <v>3.76</v>
-      </c>
-      <c r="O64" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="P64" s="9">
-        <v>6.8476724758241669</v>
-      </c>
-      <c r="Q64" s="9">
-        <v>130.4607201949382</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -4142,37 +4103,37 @@
       <c r="H65" s="4">
         <v>0.49</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="7">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J65" s="7">
+        <v>151.4</v>
+      </c>
+      <c r="K65" s="7">
+        <v>57.026377333156539</v>
+      </c>
+      <c r="L65" s="7">
+        <v>1804.1111448914367</v>
+      </c>
+      <c r="M65" s="7">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="N65" s="7">
+        <v>57</v>
+      </c>
+      <c r="O65" s="7">
+        <v>21.469640079193674</v>
+      </c>
+      <c r="P65" s="7">
+        <v>679.22282205291867</v>
+      </c>
+      <c r="Q65" s="4">
         <v>27.3</v>
-      </c>
-      <c r="J65" s="7">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="K65" s="7">
-        <v>151.4</v>
-      </c>
-      <c r="L65" s="7">
-        <v>57.026377333156539</v>
-      </c>
-      <c r="M65" s="7">
-        <v>1804.1111448914367</v>
-      </c>
-      <c r="N65" s="7">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="O65" s="7">
-        <v>57</v>
-      </c>
-      <c r="P65" s="7">
-        <v>21.469640079193674</v>
-      </c>
-      <c r="Q65" s="7">
-        <v>679.22282205291867</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>39</v>
@@ -4195,37 +4156,37 @@
       <c r="H66" s="4">
         <v>0.45</v>
       </c>
-      <c r="I66" s="4">
-        <v>20.8</v>
+      <c r="I66" s="5">
+        <v>3.62</v>
       </c>
       <c r="J66" s="5">
+        <v>247.9</v>
+      </c>
+      <c r="K66" s="5">
+        <v>97.377815805756043</v>
+      </c>
+      <c r="L66" s="5">
+        <v>2847.7685863399656</v>
+      </c>
+      <c r="M66" s="5">
         <v>3.62</v>
       </c>
-      <c r="K66" s="5">
-        <v>247.9</v>
-      </c>
-      <c r="L66" s="5">
-        <v>97.377815805756043</v>
-      </c>
-      <c r="M66" s="5">
-        <v>2847.7685863399656</v>
-      </c>
       <c r="N66" s="5">
-        <v>3.62</v>
+        <v>37.9</v>
       </c>
       <c r="O66" s="5">
-        <v>37.9</v>
+        <v>14.887532146180533</v>
       </c>
       <c r="P66" s="5">
-        <v>14.887532146180533</v>
-      </c>
-      <c r="Q66" s="5">
         <v>435.37890045294358</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>20.6</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>39</v>
@@ -4248,37 +4209,37 @@
       <c r="H67" s="4">
         <v>0.47</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="J67" s="5">
+        <v>128</v>
+      </c>
+      <c r="K67" s="5">
+        <v>45.912319068135226</v>
+      </c>
+      <c r="L67" s="5">
+        <v>1646.2040080408992</v>
+      </c>
+      <c r="M67" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="N67" s="5">
+        <v>29</v>
+      </c>
+      <c r="O67" s="5">
+        <v>10.402009788874388</v>
+      </c>
+      <c r="P67" s="5">
+        <v>372.96809557176618</v>
+      </c>
+      <c r="Q67" s="4">
         <v>21.2</v>
-      </c>
-      <c r="J67" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="K67" s="5">
-        <v>128</v>
-      </c>
-      <c r="L67" s="5">
-        <v>45.912319068135226</v>
-      </c>
-      <c r="M67" s="5">
-        <v>1646.2040080408992</v>
-      </c>
-      <c r="N67" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="O67" s="5">
-        <v>29</v>
-      </c>
-      <c r="P67" s="5">
-        <v>10.402009788874388</v>
-      </c>
-      <c r="Q67" s="5">
-        <v>372.96809557176618</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>39</v>
@@ -4301,19 +4262,19 @@
       <c r="H68" s="4">
         <v>0.54</v>
       </c>
-      <c r="I68" s="4">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J68" s="5">
+      <c r="I68" s="5">
         <v>4.66</v>
       </c>
-      <c r="N68" s="5">
+      <c r="M68" s="5">
         <v>4.66</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>29.2</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>39</v>
@@ -4336,37 +4297,37 @@
       <c r="H69" s="4">
         <v>0.4</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="J69" s="5">
+        <v>215</v>
+      </c>
+      <c r="K69" s="5">
+        <v>82.423476713542684</v>
+      </c>
+      <c r="L69" s="5">
+        <v>2413.6401084305685</v>
+      </c>
+      <c r="M69" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="N69" s="5">
+        <v>30.7</v>
+      </c>
+      <c r="O69" s="5">
+        <v>11.769305744677956</v>
+      </c>
+      <c r="P69" s="5">
+        <v>344.64535501776021</v>
+      </c>
+      <c r="Q69" s="4">
         <v>15.8</v>
-      </c>
-      <c r="J69" s="5">
-        <v>3.16</v>
-      </c>
-      <c r="K69" s="5">
-        <v>215</v>
-      </c>
-      <c r="L69" s="5">
-        <v>82.423476713542684</v>
-      </c>
-      <c r="M69" s="5">
-        <v>2413.6401084305685</v>
-      </c>
-      <c r="N69" s="5">
-        <v>3.16</v>
-      </c>
-      <c r="O69" s="5">
-        <v>30.7</v>
-      </c>
-      <c r="P69" s="5">
-        <v>11.769305744677956</v>
-      </c>
-      <c r="Q69" s="5">
-        <v>344.64535501776021</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>39</v>
@@ -4389,37 +4350,37 @@
       <c r="H70" s="4">
         <v>0.53</v>
       </c>
-      <c r="I70" s="4">
-        <v>15.2</v>
+      <c r="I70" s="5">
+        <v>4.59</v>
       </c>
       <c r="J70" s="5">
+        <v>116.3</v>
+      </c>
+      <c r="K70" s="5">
+        <v>43.94695910441844</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1414.0413950674038</v>
+      </c>
+      <c r="M70" s="5">
         <v>4.59</v>
       </c>
-      <c r="K70" s="5">
-        <v>116.3</v>
-      </c>
-      <c r="L70" s="5">
-        <v>43.94695910441844</v>
-      </c>
-      <c r="M70" s="5">
-        <v>1414.0413950674038</v>
-      </c>
       <c r="N70" s="5">
-        <v>4.59</v>
+        <v>30.7</v>
       </c>
       <c r="O70" s="5">
-        <v>30.7</v>
+        <v>11.600788000908391</v>
       </c>
       <c r="P70" s="5">
-        <v>11.600788000908391</v>
-      </c>
-      <c r="Q70" s="5">
         <v>373.26802088193716</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>22.7</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>39</v>
@@ -4442,37 +4403,37 @@
       <c r="H71" s="4">
         <v>0.49</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="J71" s="5">
+        <v>124.5</v>
+      </c>
+      <c r="K71" s="5">
+        <v>54.367606975166204</v>
+      </c>
+      <c r="L71" s="5">
+        <v>1245.3288199183846</v>
+      </c>
+      <c r="M71" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="N71" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="O71" s="5">
+        <v>13.755659596126391</v>
+      </c>
+      <c r="P71" s="5">
+        <v>315.08319540103702</v>
+      </c>
+      <c r="Q71" s="4">
         <v>31.3</v>
-      </c>
-      <c r="J71" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="K71" s="5">
-        <v>124.5</v>
-      </c>
-      <c r="L71" s="5">
-        <v>54.367606975166204</v>
-      </c>
-      <c r="M71" s="5">
-        <v>1245.3288199183846</v>
-      </c>
-      <c r="N71" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="O71" s="5">
-        <v>31.5</v>
-      </c>
-      <c r="P71" s="5">
-        <v>13.755659596126391</v>
-      </c>
-      <c r="Q71" s="5">
-        <v>315.08319540103702</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>39</v>
@@ -4495,37 +4456,37 @@
       <c r="H72" s="4">
         <v>0.37</v>
       </c>
-      <c r="I72" s="4">
-        <v>13.1</v>
+      <c r="I72" s="5">
+        <v>3.84</v>
       </c>
       <c r="J72" s="5">
+        <v>184.3</v>
+      </c>
+      <c r="K72" s="5">
+        <v>62.207740358574753</v>
+      </c>
+      <c r="L72" s="5">
+        <v>2690.4104758064923</v>
+      </c>
+      <c r="M72" s="5">
         <v>3.84</v>
       </c>
-      <c r="K72" s="5">
-        <v>184.3</v>
-      </c>
-      <c r="L72" s="5">
-        <v>62.207740358574753</v>
-      </c>
-      <c r="M72" s="5">
-        <v>2690.4104758064923</v>
-      </c>
       <c r="N72" s="5">
-        <v>3.84</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="O72" s="5">
-        <v>37.299999999999997</v>
+        <v>12.590063566873782</v>
       </c>
       <c r="P72" s="5">
-        <v>12.590063566873782</v>
-      </c>
-      <c r="Q72" s="5">
         <v>544.50521295486794</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>39</v>
@@ -4548,36 +4509,37 @@
       <c r="H73" s="4">
         <v>0.49</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="5">
+        <v>4.12</v>
+      </c>
+      <c r="J73" s="5">
+        <v>175.5</v>
+      </c>
+      <c r="K73" s="5">
+        <v>67.936360379549356</v>
+      </c>
+      <c r="L73" s="5">
+        <v>2096.3796205813096</v>
+      </c>
+      <c r="M73" s="5">
+        <v>4.12</v>
+      </c>
+      <c r="N73" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="O73" s="5">
+        <v>7.5490530864096979</v>
+      </c>
+      <c r="P73" s="5">
+        <v>177.58312140155067</v>
+      </c>
+      <c r="Q73" s="4">
         <v>32.700000000000003</v>
-      </c>
-      <c r="J73" s="5">
-        <v>4.12</v>
-      </c>
-      <c r="K73" s="5">
-        <v>175.5</v>
-      </c>
-      <c r="L73" s="5">
-        <v>67.936360379549356</v>
-      </c>
-      <c r="M73" s="5">
-        <v>2096.3796205813096</v>
-      </c>
-      <c r="N73" s="5">
-        <v>4.12</v>
-      </c>
-      <c r="O73" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="P73" s="5">
-        <v>7.5490530864096979</v>
-      </c>
-      <c r="Q73" s="5">
-        <v>177.58312140155067</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H79" s="6"/>
+      <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -4585,9 +4547,9 @@
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -4595,9 +4557,9 @@
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-    </row>
-    <row r="81" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -4605,9 +4567,9 @@
       <c r="N81" s="7"/>
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-    </row>
-    <row r="82" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
@@ -4615,9 +4577,9 @@
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-    </row>
-    <row r="83" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -4625,9 +4587,9 @@
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-    </row>
-    <row r="84" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -4635,9 +4597,9 @@
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-    </row>
-    <row r="85" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
@@ -4645,10 +4607,10 @@
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-    </row>
-    <row r="86" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H86" s="6"/>
+      <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -4656,9 +4618,9 @@
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-    </row>
-    <row r="87" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -4666,9 +4628,9 @@
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-    </row>
-    <row r="88" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -4676,9 +4638,9 @@
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-    </row>
-    <row r="89" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -4686,9 +4648,9 @@
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-    </row>
-    <row r="90" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -4696,9 +4658,9 @@
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-    </row>
-    <row r="91" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -4706,9 +4668,9 @@
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-    </row>
-    <row r="92" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -4716,10 +4678,10 @@
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-    </row>
-    <row r="93" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H93" s="6"/>
+      <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -4727,9 +4689,9 @@
       <c r="N93" s="7"/>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-    </row>
-    <row r="94" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -4737,9 +4699,9 @@
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-    </row>
-    <row r="95" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -4747,9 +4709,9 @@
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-    </row>
-    <row r="96" spans="8:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -4757,9 +4719,9 @@
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
       <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-    </row>
-    <row r="97" spans="10:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -4767,19 +4729,19 @@
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-    </row>
-    <row r="98" spans="10:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
+      <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-    </row>
-    <row r="99" spans="10:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -4787,7 +4749,6 @@
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4796,30 +4757,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD63CB32-0AF8-4A69-840E-0D4A9A6F29DD}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4850,17 +4808,8 @@
       <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4891,17 +4840,8 @@
       <c r="J2" s="3">
         <v>5.34</v>
       </c>
-      <c r="K2">
-        <v>4.45</v>
-      </c>
-      <c r="L2">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="M2" s="2">
-        <v>4.494382022471914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4936,17 +4876,8 @@
         <f>(5.35+4.72)</f>
         <v>10.07</v>
       </c>
-      <c r="K3">
-        <v>2.85</v>
-      </c>
-      <c r="L3">
-        <v>3.37</v>
-      </c>
-      <c r="M3" s="2">
-        <v>18.245614035087719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4981,17 +4912,8 @@
         <f>(3.68+3.87)/2</f>
         <v>3.7750000000000004</v>
       </c>
-      <c r="K4">
-        <v>3.15</v>
-      </c>
-      <c r="L4">
-        <v>3.28</v>
-      </c>
-      <c r="M4" s="2">
-        <v>4.126984126984123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5026,19 +4948,10 @@
         <f>(10.61+10)/2</f>
         <v>10.305</v>
       </c>
-      <c r="K5">
-        <v>3.44</v>
-      </c>
-      <c r="L5">
-        <v>3.66</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6.3953488372093084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -5067,17 +4980,8 @@
       <c r="J6" s="3">
         <v>6.19</v>
       </c>
-      <c r="K6">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="L6">
-        <v>4.03</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.24875621890548946</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5112,19 +5016,10 @@
         <f>(4.1+5.8+4.67)/3</f>
         <v>4.8566666666666665</v>
       </c>
-      <c r="K7">
-        <v>3.57</v>
-      </c>
-      <c r="L7">
-        <v>3.96</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10.924369747899163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -5157,19 +5052,10 @@
         <f>(9.44+7.23+5.08)/3</f>
         <v>7.25</v>
       </c>
-      <c r="K8">
-        <v>3.4</v>
-      </c>
-      <c r="L8">
-        <v>3.76</v>
-      </c>
-      <c r="M8" s="2">
-        <v>10.588235294117645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -5180,17 +5066,8 @@
       <c r="D9" s="2">
         <v>0.59171597633136142</v>
       </c>
-      <c r="K9">
-        <v>3.38</v>
-      </c>
-      <c r="L9">
-        <v>3.4</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.59171597633136142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5225,17 +5102,8 @@
         <f>(3.79+2.74+1.39)/3</f>
         <v>2.64</v>
       </c>
-      <c r="K10">
-        <v>3.23</v>
-      </c>
-      <c r="L10">
-        <v>3.33</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3.0959752321981453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5270,19 +5138,10 @@
         <f>(2.57+2.4+1.97)/3</f>
         <v>2.313333333333333</v>
       </c>
-      <c r="K11">
-        <v>3.51</v>
-      </c>
-      <c r="L11">
-        <v>3.72</v>
-      </c>
-      <c r="M11" s="2">
-        <v>5.9829059829059954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -5315,19 +5174,10 @@
         <f>(2.93+2.33+1.65)/3</f>
         <v>2.3033333333333332</v>
       </c>
-      <c r="K12">
-        <v>2.91</v>
-      </c>
-      <c r="L12">
-        <v>3.22</v>
-      </c>
-      <c r="M12" s="2">
-        <v>10.652920962199314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -5347,19 +5197,10 @@
       <c r="G13" s="3">
         <v>9.4700000000000006</v>
       </c>
-      <c r="K13">
-        <v>3.74</v>
-      </c>
-      <c r="L13">
-        <v>3.96</v>
-      </c>
-      <c r="M13" s="2">
-        <v>5.8823529411764639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -5379,19 +5220,10 @@
       <c r="J14" s="3">
         <v>8.7200000000000006</v>
       </c>
-      <c r="K14">
-        <v>3.57</v>
-      </c>
-      <c r="L14">
-        <v>3.48</v>
-      </c>
-      <c r="M14" s="2">
-        <v>-2.5210084033613409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -5411,19 +5243,10 @@
       <c r="J15" s="3">
         <v>3.45</v>
       </c>
-      <c r="K15">
-        <v>3.33</v>
-      </c>
-      <c r="L15">
-        <v>3.3</v>
-      </c>
-      <c r="M15" s="2">
-        <v>-0.90090090090090835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -5440,19 +5263,10 @@
       <c r="H16" s="3">
         <v>7.39</v>
       </c>
-      <c r="K16">
-        <v>4.51</v>
-      </c>
-      <c r="L16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M16" s="2">
-        <v>-2.43902439024389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -5460,16 +5274,10 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="L17">
-        <v>3.2</v>
-      </c>
-      <c r="M17" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -5489,19 +5297,10 @@
       <c r="G18" s="3">
         <v>2.29</v>
       </c>
-      <c r="K18">
-        <v>3.35</v>
-      </c>
-      <c r="L18">
-        <v>3.47</v>
-      </c>
-      <c r="M18" s="2">
-        <v>3.5820895522388088</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -5530,17 +5329,8 @@
       <c r="J19" s="3">
         <v>9.74</v>
       </c>
-      <c r="K19">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="L19">
-        <v>4.13</v>
-      </c>
-      <c r="M19" s="2">
-        <v>2.7363184079602072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5573,17 +5363,8 @@
       <c r="J20" s="3">
         <v>6.7</v>
       </c>
-      <c r="K20">
-        <v>4.71</v>
-      </c>
-      <c r="L20">
-        <v>4.83</v>
-      </c>
-      <c r="M20" s="2">
-        <v>2.5477707006369448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5618,17 +5399,8 @@
         <f>(18.97+17.08+16.74)/3</f>
         <v>17.596666666666664</v>
       </c>
-      <c r="K21">
-        <v>3.29</v>
-      </c>
-      <c r="L21">
-        <v>3.5</v>
-      </c>
-      <c r="M21" s="2">
-        <v>6.3829787234042552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -5661,17 +5433,8 @@
       <c r="J22" s="3">
         <v>5.24</v>
       </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>3.92</v>
-      </c>
-      <c r="M22" s="2">
-        <v>30.666666666666664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -5703,19 +5466,10 @@
       <c r="J23" s="3">
         <v>10.45</v>
       </c>
-      <c r="K23">
-        <v>3.3</v>
-      </c>
-      <c r="L23">
-        <v>3.49</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5.7575757575757693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -5744,17 +5498,8 @@
       <c r="J24" s="3">
         <v>5.78</v>
       </c>
-      <c r="K24">
-        <v>3.66</v>
-      </c>
-      <c r="L24">
-        <v>4.16</v>
-      </c>
-      <c r="M24" s="2">
-        <v>13.661202185792348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -5789,19 +5534,10 @@
         <f>(0.64+0.51+0.71)/3</f>
         <v>0.62</v>
       </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>4.16</v>
-      </c>
-      <c r="M25" s="2">
-        <v>4.0000000000000036</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -5834,19 +5570,10 @@
         <f>(5.51+4.47)/2</f>
         <v>4.99</v>
       </c>
-      <c r="K26">
-        <v>3.3</v>
-      </c>
-      <c r="L26">
-        <v>3.61</v>
-      </c>
-      <c r="M26" s="2">
-        <v>9.3939393939393963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -5857,17 +5584,8 @@
       <c r="D27" s="2">
         <v>21.698113207547166</v>
       </c>
-      <c r="K27">
-        <v>3.18</v>
-      </c>
-      <c r="L27">
-        <v>3.87</v>
-      </c>
-      <c r="M27" s="2">
-        <v>21.698113207547166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -5898,17 +5616,8 @@
       <c r="I28" s="3">
         <v>9.74</v>
       </c>
-      <c r="K28">
-        <v>3.33</v>
-      </c>
-      <c r="L28">
-        <v>3.36</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.90090090090089503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -5939,19 +5648,10 @@
       <c r="I29" s="3">
         <v>10.37</v>
       </c>
-      <c r="K29">
-        <v>3.8</v>
-      </c>
-      <c r="L29">
-        <v>3.84</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1.0526315789473695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -5980,19 +5680,10 @@
       <c r="J30" s="3">
         <v>2.63</v>
       </c>
-      <c r="K30">
-        <v>3.05</v>
-      </c>
-      <c r="L30">
-        <v>3.21</v>
-      </c>
-      <c r="M30" s="2">
-        <v>5.2459016393442672</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -6021,19 +5712,10 @@
       <c r="J31" s="3">
         <v>5.59</v>
       </c>
-      <c r="K31">
-        <v>4.12</v>
-      </c>
-      <c r="L31">
-        <v>4.25</v>
-      </c>
-      <c r="M31" s="2">
-        <v>3.15533980582524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -6053,19 +5735,10 @@
       <c r="G32" s="3">
         <v>5.13</v>
       </c>
-      <c r="K32">
-        <v>3.42</v>
-      </c>
-      <c r="L32">
-        <v>4.29</v>
-      </c>
-      <c r="M32" s="2">
-        <v>25.438596491228072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -6076,19 +5749,10 @@
       <c r="D33" s="2">
         <v>0.28409090909090301</v>
       </c>
-      <c r="K33">
-        <v>3.52</v>
-      </c>
-      <c r="L33">
-        <v>3.53</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.28409090909090301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -6108,19 +5772,10 @@
       <c r="J34" s="3">
         <v>5.73</v>
       </c>
-      <c r="K34">
-        <v>4.21</v>
-      </c>
-      <c r="L34">
-        <v>4.45</v>
-      </c>
-      <c r="M34" s="2">
-        <v>5.700712589073639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -6131,19 +5786,10 @@
       <c r="D35" s="2">
         <v>-2.6239067055393672</v>
       </c>
-      <c r="K35">
-        <v>3.43</v>
-      </c>
-      <c r="L35">
-        <v>3.34</v>
-      </c>
-      <c r="M35" s="2">
-        <v>-2.6239067055393672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -6166,19 +5812,10 @@
       <c r="H36" s="3">
         <v>6.08</v>
       </c>
-      <c r="K36">
-        <v>3.45</v>
-      </c>
-      <c r="L36">
-        <v>3.79</v>
-      </c>
-      <c r="M36" s="2">
-        <v>9.85507246376811</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -6187,15 +5824,6 @@
         <v>24</v>
       </c>
       <c r="D37" s="2">
-        <v>12.468827930174564</v>
-      </c>
-      <c r="K37">
-        <v>4.01</v>
-      </c>
-      <c r="L37">
-        <v>4.51</v>
-      </c>
-      <c r="M37" s="2">
         <v>12.468827930174564</v>
       </c>
     </row>
@@ -6208,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33926FC1-D335-4EDA-9A14-118A243C8658}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:T1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6257,7 +5885,7 @@
         <v>43</v>
       </c>
       <c r="D2">
-        <v>1.56</v>
+        <v>156</v>
       </c>
       <c r="E2">
         <v>105.2</v>
@@ -6289,7 +5917,7 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>1.48</v>
+        <v>148</v>
       </c>
       <c r="E3">
         <v>82.7</v>
@@ -6321,7 +5949,7 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>1.7749999999999999</v>
+        <v>177.5</v>
       </c>
       <c r="E4">
         <v>87.7</v>
@@ -6353,7 +5981,7 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>1.61</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>53.8</v>
@@ -6376,7 +6004,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -6385,7 +6013,7 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>1.75</v>
+        <v>175</v>
       </c>
       <c r="E6">
         <v>69</v>
@@ -6417,7 +6045,7 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>1.62</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>62</v>
@@ -6440,7 +6068,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -6449,7 +6077,7 @@
         <v>42</v>
       </c>
       <c r="D8">
-        <v>1.59</v>
+        <v>159</v>
       </c>
       <c r="E8">
         <v>55.8</v>
@@ -6472,7 +6100,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -6481,7 +6109,7 @@
         <v>42</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>52.5</v>
@@ -6513,7 +6141,7 @@
         <v>42</v>
       </c>
       <c r="D10">
-        <v>1.54</v>
+        <v>154</v>
       </c>
       <c r="E10">
         <v>50.2</v>
@@ -6545,7 +6173,7 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>160</v>
       </c>
       <c r="E11">
         <v>47.4</v>
@@ -6568,7 +6196,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -6577,7 +6205,7 @@
         <v>42</v>
       </c>
       <c r="D12">
-        <v>1.59</v>
+        <v>159</v>
       </c>
       <c r="E12">
         <v>65</v>
@@ -6600,7 +6228,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -6609,7 +6237,7 @@
         <v>43</v>
       </c>
       <c r="D13">
-        <v>1.67</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>72.7</v>
@@ -6632,7 +6260,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -6641,7 +6269,7 @@
         <v>43</v>
       </c>
       <c r="D14">
-        <v>1.62</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <v>69.099999999999994</v>
@@ -6664,7 +6292,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -6673,7 +6301,7 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>1.6</v>
+        <v>160</v>
       </c>
       <c r="E15">
         <v>72</v>
@@ -6696,7 +6324,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -6705,7 +6333,7 @@
         <v>43</v>
       </c>
       <c r="D16">
-        <v>1.72</v>
+        <v>172</v>
       </c>
       <c r="E16">
         <v>104</v>
@@ -6728,7 +6356,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -6737,7 +6365,7 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>1.56</v>
+        <v>156</v>
       </c>
       <c r="E17">
         <v>43</v>
@@ -6760,7 +6388,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -6769,7 +6397,7 @@
         <v>42</v>
       </c>
       <c r="D18">
-        <v>1.52</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>60</v>
@@ -6792,7 +6420,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -6801,7 +6429,7 @@
         <v>43</v>
       </c>
       <c r="D19">
-        <v>1.72</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <v>65.400000000000006</v>
@@ -6825,158 +6453,346 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569C36A1-525D-4B0D-A873-C3554146AF13}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>185</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.41</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>132</v>
+        <v>159.79</v>
       </c>
       <c r="C4" s="1">
-        <v>0.02</v>
+        <v>9.19</v>
       </c>
       <c r="D4" s="1">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>78</v>
+        <v>69.86</v>
       </c>
       <c r="C5" s="1">
-        <v>0.8</v>
+        <v>22.15</v>
       </c>
       <c r="D5" s="1">
-        <v>6.54E-2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>92</v>
+        <v>23.43</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3.41</v>
       </c>
       <c r="D6" s="1">
-        <v>9.3399999999999993E-3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.71699999999999997</v>
+        <v>33.31</v>
       </c>
       <c r="C7" s="1">
-        <v>0.48399999999999999</v>
+        <v>6.52</v>
       </c>
       <c r="D7" s="1">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>69</v>
+        <v>176.14</v>
       </c>
       <c r="C8" s="1">
-        <v>0.8</v>
+        <v>14.58</v>
       </c>
       <c r="D8" s="1">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17.86</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>164.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11.43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="C13" s="1">
+        <v>29.64</v>
+      </c>
+      <c r="D13" s="1">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25.67</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>31.47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>169</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16.82</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>156.25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>62.17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>181.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>12.12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -6986,89 +6802,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D4335B-9C85-46E0-8522-60C6F20E3CA0}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7">
-        <v>3.58</v>
-      </c>
-      <c r="E7">
-        <v>0.46</v>
-      </c>
-      <c r="F7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8">
-        <v>3.79</v>
-      </c>
-      <c r="E8">
-        <v>0.45</v>
-      </c>
-      <c r="F8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9">
-        <v>6.78</v>
-      </c>
-      <c r="E9">
-        <v>7.71</v>
-      </c>
-      <c r="F9">
-        <v>1.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63627A-C8C7-460E-91D8-FFF458A1B100}">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7199,7 +6938,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -7245,7 +6984,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -7268,7 +7007,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -7337,7 +7076,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -7360,7 +7099,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -7383,7 +7122,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -7406,7 +7145,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -7429,7 +7168,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -7452,7 +7191,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -7475,7 +7214,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -7498,7 +7237,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -7613,7 +7352,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -7659,7 +7398,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -7682,7 +7421,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -7751,7 +7490,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -7774,7 +7513,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -7797,7 +7536,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -7820,7 +7559,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -7843,7 +7582,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -7866,7 +7605,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -7889,7 +7628,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -7912,7 +7651,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -8027,7 +7766,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -8073,7 +7812,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -8096,7 +7835,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -8165,7 +7904,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -8188,7 +7927,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
@@ -8211,7 +7950,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -8234,7 +7973,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -8257,7 +7996,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -8280,7 +8019,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8303,7 +8042,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -8326,7 +8065,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -8361,7 +8100,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F56">
         <v>3.4</v>
@@ -8441,7 +8180,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -8487,7 +8226,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -8510,7 +8249,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -8579,7 +8318,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -8602,7 +8341,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -8625,7 +8364,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -8648,7 +8387,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -8671,7 +8410,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
@@ -8685,7 +8424,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -8708,7 +8447,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -8731,7 +8470,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
